--- a/dataset/公开数据集.xlsx
+++ b/dataset/公开数据集.xlsx
@@ -8,12 +8,13 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="汇总" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="DCNN" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CNN-multichannel" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="seq or bow-CNN" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Semantic-CNN" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="MVCNN" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="数据集汇总" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="可用资源汇总" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="DCNN" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CNN-multichannel" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="seq or bow-CNN" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Semantic-CNN" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="MVCNN" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="140">
   <si>
     <t>相关论文列表</t>
   </si>
@@ -205,7 +206,7 @@
     <t>标签类别</t>
   </si>
   <si>
-    <t>数据集大小</t>
+    <t>数据集总体</t>
   </si>
   <si>
     <t>训练集</t>
@@ -226,6 +227,12 @@
     <t>出处</t>
   </si>
   <si>
+    <t>样例数</t>
+  </si>
+  <si>
+    <t>字典大小</t>
+  </si>
+  <si>
     <t>MR</t>
   </si>
   <si>
@@ -238,73 +245,145 @@
     <t>10662 ( 5331 positive and 5331 negative)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>18764</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>16448</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>个词出现 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>GooggleNews 模型中,2316个个未出现</t>
+    </r>
+  </si>
+  <si>
+    <t>CV-10折</t>
+  </si>
+  <si>
+    <t>交叉验证</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>SST-1</t>
+  </si>
+  <si>
+    <t>an extension of MR. the prediction of the sentiment of movie reviews in the Stanford Sentiment Treebank (Richard Socher et al., 2013).</t>
+  </si>
+  <si>
+    <t>negative, somewhat negative, neutral, somewhat positive, positive</t>
+  </si>
+  <si>
+    <t>standard split</t>
+  </si>
+  <si>
+    <t>Richard Socher, et al.. 2013. Recursive deep models for semantic compositionality over a sentiment treebank. </t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>SST-2</t>
+  </si>
+  <si>
+    <t>Same as SST-1 but with neutral re-views removed and binary labels (Richard Socher et al., 2013)</t>
+  </si>
+  <si>
+    <t>positive or negative</t>
+  </si>
+  <si>
+    <t>TREC</t>
+  </si>
+  <si>
+    <t>Question Type Classification (Li and Roth, 2002)</t>
+  </si>
+  <si>
+    <t>six different question types, e.g. whether the question is about a location, about a person or about some numeric information</t>
+  </si>
+  <si>
+    <t>Sentiment140</t>
+  </si>
+  <si>
+    <t>Twitter Sentiment Prediction with Distant Supervision (Go et al. ,2009)</t>
+  </si>
+  <si>
+    <t>1.6 million tweets</t>
+  </si>
+  <si>
+    <t>Go, et al.. 2009.Twitter sentiment classification using distant supervision</t>
+  </si>
+  <si>
+    <t>Subj</t>
+  </si>
+  <si>
+    <t>Subjectivity dataset where the task is to classify a sentence as being subjective or objective (Pang and Lee, 2004). </t>
+  </si>
+  <si>
+    <t>subjective or objective</t>
+  </si>
+  <si>
+    <t>10000(5000 subjective and 5000 objective)</t>
+  </si>
+  <si>
     <t>CV</t>
-  </si>
-  <si>
-    <t>交叉验证</t>
-  </si>
-  <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>SST-1</t>
-  </si>
-  <si>
-    <t>an extension of MR. the prediction of the sentiment of movie reviews in the Stanford Sentiment Treebank (Richard Socher et al., 2013).</t>
-  </si>
-  <si>
-    <t>negative, somewhat negative, neutral, somewhat positive, positive</t>
-  </si>
-  <si>
-    <t>standard split</t>
-  </si>
-  <si>
-    <t>Richard Socher, et al.. 2013. Recursive deep models for semantic compositionality over a sentiment treebank. </t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>SST-2</t>
-  </si>
-  <si>
-    <t>Same as SST-1 but with neutral re-views removed and binary labels (Richard Socher et al., 2013)</t>
-  </si>
-  <si>
-    <t>positive or negative</t>
-  </si>
-  <si>
-    <t>TREC</t>
-  </si>
-  <si>
-    <t>Question Type Classification (Li and Roth, 2002)</t>
-  </si>
-  <si>
-    <t>six different question types, e.g. whether the question is about a location, about a person or about some numeric information</t>
-  </si>
-  <si>
-    <t>Sentiment140</t>
-  </si>
-  <si>
-    <t>Twitter Sentiment Prediction with Distant Supervision (Go et al. ,2009)</t>
-  </si>
-  <si>
-    <t>1.6 million tweets</t>
-  </si>
-  <si>
-    <t>Go, et al.. 2009.Twitter sentiment classification using distant supervision</t>
-  </si>
-  <si>
-    <t>Subj</t>
-  </si>
-  <si>
-    <t>Subjectivity dataset where the task is to classify a sentence as being subjective or objective (Pang and Lee, 2004). </t>
-  </si>
-  <si>
-    <t>subjective or objective</t>
-  </si>
-  <si>
-    <t>10000(5000 subjective and 5000 objective)</t>
   </si>
   <si>
     <t>CR</t>
@@ -402,66 +481,10 @@
     <t>RCV1-multi</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>corpus of Reuters news articles. topic categorization.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>（一个样例可能有多标签）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.(Lewis et al., 2004)。（数据不公开，需要申请。）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>103</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>one document may be associated with more than one topic）</t>
-    </r>
+    <t>corpus of Reuters news articles. topic categorization.（一个样例可能有多标签）.(Lewis et al., 2004)。（数据不公开，需要申请。）</t>
+  </si>
+  <si>
+    <t>103（one document may be associated with more than one topic）</t>
   </si>
   <si>
     <t>topic categories.</t>
@@ -473,35 +496,7 @@
     <t>RCV1-single</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>corpus of Reuters news articles. topic categorization.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>（一个样例只有一个标签）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.(Lewis et al., 2004)（数据不公开，需要申请。）</t>
-    </r>
+    <t>corpus of Reuters news articles. topic categorization.（一个样例只有一个标签）.(Lewis et al., 2004)（数据不公开，需要申请。）</t>
   </si>
   <si>
     <t>Google Snippets</t>
@@ -675,6 +670,9 @@
     <t>待更新</t>
   </si>
   <si>
+    <t>情感词库</t>
+  </si>
+  <si>
     <t>DCNN (Dynamic Convolutional Neural Network) 模型图</t>
   </si>
   <si>
@@ -703,7 +701,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -762,12 +760,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -997,7 +989,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1067,6 +1059,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1082,14 +1082,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1098,23 +1090,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1158,7 +1150,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1202,18 +1194,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1222,7 +1214,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1242,26 +1234,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1278,7 +1270,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1326,14 +1318,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1342,11 +1334,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1362,11 +1350,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1390,7 +1378,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1488,15 +1476,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>387720</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:colOff>467640</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1509,8 +1497,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="237240"/>
-          <a:ext cx="5218200" cy="8008920"/>
+          <a:off x="108000" y="210240"/>
+          <a:ext cx="5617440" cy="8007840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1530,15 +1518,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>158760</xdr:colOff>
+      <xdr:colOff>238680</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1551,8 +1539,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="232920"/>
-          <a:ext cx="7418160" cy="3151800"/>
+          <a:off x="108000" y="205920"/>
+          <a:ext cx="8017200" cy="3150720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1572,15 +1560,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
+      <xdr:colOff>107280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628920</xdr:colOff>
+      <xdr:colOff>708840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1593,8 +1581,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26280" y="3206880"/>
-          <a:ext cx="4666320" cy="2037600"/>
+          <a:off x="107280" y="3179880"/>
+          <a:ext cx="5030640" cy="2036520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,15 +1597,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
+      <xdr:colOff>164880</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,8 +1618,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5479560"/>
-          <a:ext cx="4961520" cy="4637880"/>
+          <a:off x="81000" y="5452560"/>
+          <a:ext cx="5398560" cy="4636800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1646,15 +1634,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>708840</xdr:colOff>
+      <xdr:colOff>788760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1667,8 +1655,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="213840"/>
-          <a:ext cx="5585400" cy="2917800"/>
+          <a:off x="81000" y="186840"/>
+          <a:ext cx="6022440" cy="2916720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1688,15 +1676,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
+      <xdr:colOff>565560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1709,8 +1697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="216720"/>
-          <a:ext cx="4549320" cy="4818960"/>
+          <a:off x="81000" y="189720"/>
+          <a:ext cx="4913640" cy="4817880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,15 +1718,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31680</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>564840</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:colOff>644760</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1751,8 +1739,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31680" y="254160"/>
-          <a:ext cx="5409720" cy="8343720"/>
+          <a:off x="112680" y="227160"/>
+          <a:ext cx="5846760" cy="8342640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,15 +1755,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>328320</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>173880</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1788,8 +1776,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6017760" y="1915560"/>
-          <a:ext cx="9066240" cy="2370960"/>
+          <a:off x="6609960" y="1888560"/>
+          <a:ext cx="9845640" cy="2369880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1811,27 +1799,27 @@
   </sheetPr>
   <dimension ref="1:59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="78.6477732793522"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.8380566801619"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.3481781376518"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="85.2672064777328"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,6 +2042,17 @@
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+    </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="C14" s="0"/>
@@ -2061,16 +2060,16 @@
         <v>36</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" s="14" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
@@ -2086,406 +2085,446 @@
       <c r="E15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="K15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="L15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="M15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="N15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="0"/>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="16" t="n">
         <v>5</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F18" s="16" t="n">
         <v>11855</v>
       </c>
-      <c r="G18" s="16" t="n">
+      <c r="G18" s="0"/>
+      <c r="H18" s="16" t="n">
         <v>8544</v>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="I18" s="0"/>
+      <c r="J18" s="16" t="n">
         <v>1101</v>
       </c>
-      <c r="I18" s="16" t="n">
+      <c r="K18" s="16" t="n">
         <v>2210</v>
       </c>
-      <c r="J18" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D19" s="16" t="n">
         <v>2</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F19" s="16" t="n">
         <v>9613</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="0"/>
+      <c r="H19" s="16" t="n">
         <v>6920</v>
       </c>
-      <c r="H19" s="16" t="n">
+      <c r="I19" s="0"/>
+      <c r="J19" s="16" t="n">
         <v>872</v>
       </c>
-      <c r="I19" s="16" t="n">
+      <c r="K19" s="16" t="n">
         <v>1821</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="16" t="n">
+      <c r="L19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="16" t="n">
         <v>15448</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="54.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>66</v>
+      <c r="B20" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" s="16" t="n">
         <v>6</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F20" s="16" t="n">
         <v>5952</v>
       </c>
-      <c r="G20" s="16" t="n">
+      <c r="G20" s="0"/>
+      <c r="H20" s="16" t="n">
         <v>5452</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16" t="n">
+      <c r="I20" s="0"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16" t="n">
         <v>500</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="1"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>69</v>
+      <c r="B21" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D21" s="16" t="n">
         <v>2</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F21" s="0"/>
-      <c r="G21" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16" t="n">
-        <v>400</v>
-      </c>
+      <c r="G21" s="0"/>
+      <c r="H21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="0"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16" t="n">
+        <v>400</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16" t="n">
         <v>76643</v>
       </c>
-      <c r="L21" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N21" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>73</v>
+      <c r="B22" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G22" s="0"/>
-      <c r="H22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>77</v>
+      <c r="B23" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>3775</v>
       </c>
       <c r="G23" s="0"/>
-      <c r="H23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>79</v>
+      <c r="B24" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>10606</v>
       </c>
       <c r="G24" s="0"/>
-      <c r="H24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="0"/>
-      <c r="L25" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="G25" s="0"/>
+      <c r="H25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="0"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="0"/>
-      <c r="I26" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="G26" s="0"/>
+      <c r="H26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="0"/>
       <c r="J26" s="0"/>
+      <c r="K26" s="9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F27" s="0"/>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="0"/>
+      <c r="H27" s="1" t="n">
         <v>23149</v>
       </c>
-      <c r="H27" s="0"/>
-      <c r="I27" s="1" t="n">
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="1" t="n">
         <v>781265</v>
       </c>
-      <c r="J27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>55</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F28" s="0"/>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="0"/>
+      <c r="H28" s="1" t="n">
         <v>15564</v>
       </c>
-      <c r="H28" s="0"/>
-      <c r="I28" s="1" t="n">
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="1" t="n">
         <v>49838</v>
       </c>
-      <c r="J28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="0"/>
+      <c r="H29" s="1" t="n">
         <v>10060</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="1" t="n">
         <v>2280</v>
       </c>
-      <c r="J29" s="0"/>
-      <c r="L29" s="10" t="s">
-        <v>98</v>
+      <c r="N29" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,7 +2567,7 @@
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -2539,7 +2578,7 @@
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
       <c r="L33" s="28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
@@ -2547,56 +2586,56 @@
     </row>
     <row r="34" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="30" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L34" s="34" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AMJ34" s="36"/>
     </row>
     <row r="35" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="40" t="n">
@@ -2676,7 +2715,7 @@
     </row>
     <row r="38" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="47" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>9</v>
@@ -2810,10 +2849,10 @@
     </row>
     <row r="42" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="54" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C42" s="39"/>
       <c r="D42" s="56" t="n">
@@ -2836,10 +2875,10 @@
     </row>
     <row r="43" s="62" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="58" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
@@ -2860,10 +2899,10 @@
     </row>
     <row r="44" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="58" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C44" s="64" t="n">
         <v>79</v>
@@ -2890,10 +2929,10 @@
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C45" s="64" t="n">
         <v>79.1</v>
@@ -3033,14 +3072,14 @@
       <c r="J50" s="74"/>
       <c r="K50" s="74"/>
       <c r="L50" s="75" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M50" s="75" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N50" s="76"/>
       <c r="O50" s="76" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,14 +3097,14 @@
       <c r="J51" s="77"/>
       <c r="K51" s="77"/>
       <c r="L51" s="78" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M51" s="78" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N51" s="79"/>
       <c r="O51" s="79" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,14 +3122,14 @@
       <c r="J52" s="77"/>
       <c r="K52" s="77"/>
       <c r="L52" s="78" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M52" s="78" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N52" s="79"/>
       <c r="O52" s="79" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" s="85" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,11 +3158,11 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="86" t="s">
+      <c r="A54" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C54" s="74"/>
       <c r="D54" s="74"/>
@@ -3144,14 +3183,14 @@
       <c r="O54" s="76"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="86"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C55" s="77"/>
       <c r="D55" s="77"/>
       <c r="E55" s="77"/>
-      <c r="F55" s="87" t="n">
+      <c r="F55" s="86" t="n">
         <v>97.2</v>
       </c>
       <c r="G55" s="77"/>
@@ -3167,9 +3206,9 @@
       <c r="O55" s="79"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="86"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C56" s="81"/>
       <c r="D56" s="81"/>
@@ -3189,67 +3228,70 @@
       <c r="N56" s="84"/>
       <c r="O56" s="84"/>
     </row>
-    <row r="57" s="95" customFormat="true" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="88" t="s">
+    <row r="57" s="94" customFormat="true" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="90"/>
-      <c r="D57" s="91" t="n">
+      <c r="B57" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="89"/>
+      <c r="D57" s="90" t="n">
         <v>49.6</v>
       </c>
-      <c r="E57" s="92" t="n">
+      <c r="E57" s="91" t="n">
         <v>89.4</v>
       </c>
-      <c r="F57" s="90"/>
-      <c r="G57" s="92" t="n">
+      <c r="F57" s="89"/>
+      <c r="G57" s="91" t="n">
         <v>88.2</v>
       </c>
-      <c r="H57" s="93" t="n">
+      <c r="H57" s="92" t="n">
         <v>93.9</v>
       </c>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-    </row>
-    <row r="58" s="94" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="96" t="s">
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="93"/>
+      <c r="O57" s="93"/>
+    </row>
+    <row r="58" s="93" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="L58" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="M58" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="O58" s="98" t="s">
-        <v>127</v>
+      <c r="B58" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="L58" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="M58" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="O58" s="97" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:J17"/>
     <mergeCell ref="C33:K33"/>
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="A35:A37"/>
@@ -3297,22 +3339,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3325,19 +3399,19 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="99"/>
-      <c r="I2" s="100" t="s">
-        <v>129</v>
+      <c r="A2" s="98"/>
+      <c r="I2" s="99" t="s">
+        <v>134</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="100" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3360,48 +3434,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="52.914979757085"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="57.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
       <c r="L1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L2" s="100" t="s">
-        <v>129</v>
+      <c r="L2" s="99" t="s">
+        <v>134</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,53 +3507,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.8785425101215"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="78.6842105263158"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="85.2672064777328"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="A1" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
       <c r="L1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L2" s="100" t="s">
-        <v>129</v>
+      <c r="L2" s="99" t="s">
+        <v>134</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L3" s="10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>14</v>
@@ -3507,49 +3579,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.753036437247"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="74.0890688259109"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="80.3400809716599"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
       <c r="I1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="100" t="s">
-        <v>129</v>
+      <c r="I2" s="99" t="s">
+        <v>134</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>26</v>
@@ -3576,46 +3646,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="59.4210526315789"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="64.4858299595142"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
+      <c r="A1" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
       <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J2" s="100" t="s">
-        <v>129</v>
+      <c r="J2" s="99" t="s">
+        <v>134</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/dataset/公开数据集.xlsx
+++ b/dataset/公开数据集.xlsx
@@ -5,16 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="数据集汇总" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="可用资源汇总" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="DCNN" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CNN-multichannel" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="seq or bow-CNN" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Semantic-CNN" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="MVCNN" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
   <si>
     <t>相关论文列表</t>
   </si>
@@ -38,10 +33,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
+        <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>Nal Kalchbrenner</t>
+      <t>Nal Kalchbrenner，</t>
     </r>
     <r>
       <rPr>
@@ -49,17 +44,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>ACL 2014</t>
     </r>
@@ -177,7 +161,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>数据集</t>
     </r>
@@ -188,7 +171,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -243,172 +225,106 @@
   </si>
   <si>
     <t>10662 ( 5331 positive and 5331 negative)</t>
+  </si>
+  <si>
+    <t>18764个,有16448个词出现 GooggleNews 模型中,2316个个未出现</t>
+  </si>
+  <si>
+    <t>CV-10折</t>
+  </si>
+  <si>
+    <t>交叉验证</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>SST-1</t>
+  </si>
+  <si>
+    <t>an extension of MR. the prediction of the sentiment of movie reviews in the Stanford Sentiment Treebank (Richard Socher et al., 2013).</t>
+  </si>
+  <si>
+    <t>negative, somewhat negative, neutral, somewhat positive, positive</t>
+  </si>
+  <si>
+    <t>standard split</t>
+  </si>
+  <si>
+    <t>Richard Socher, et al.. 2013. Recursive deep models for semantic compositionality over a sentiment treebank. </t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>SST-2</t>
+  </si>
+  <si>
+    <t>Same as SST-1 but with neutral re-views removed and binary labels (Richard Socher et al., 2013)</t>
+  </si>
+  <si>
+    <t>positive or negative</t>
+  </si>
+  <si>
+    <t>TREC</t>
+  </si>
+  <si>
+    <t>Question Type Classification (Li and Roth, 2002)</t>
+  </si>
+  <si>
+    <t>six different question types, e.g. whether the question is about a location, about a person or about some numeric information</t>
+  </si>
+  <si>
+    <t>Sentiment140</t>
+  </si>
+  <si>
+    <t>Twitter Sentiment Prediction with Distant Supervision (Go et al. ,2009)</t>
+  </si>
+  <si>
+    <t>1.6 million tweets</t>
+  </si>
+  <si>
+    <t>Go, et al.. 2009.Twitter sentiment classification using distant supervision</t>
+  </si>
+  <si>
+    <t>Subj</t>
+  </si>
+  <si>
+    <t>Subjectivity dataset where the task is to classify a sentence as being subjective or objective (Pang and Lee, 2004). </t>
+  </si>
+  <si>
+    <t>subjective or objective</t>
+  </si>
+  <si>
+    <t>10000(5000 subjective and 5000 objective)</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Customer reviews of various products (5 products. Cameras, MP3s etc.). Task is to predict positive/negative reviews (Hu and Liu, 2004)</t>
+  </si>
+  <si>
+    <t>MPQA</t>
+  </si>
+  <si>
+    <t>Opinion polarity detection subtask of the MPQA dataset (Wiebe et al., 2005).</t>
+  </si>
+  <si>
+    <t>IMDB</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
+        <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>18764</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>16448</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>个词出现 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>GooggleNews 模型中,2316个个未出现</t>
-    </r>
-  </si>
-  <si>
-    <t>CV-10折</t>
-  </si>
-  <si>
-    <t>交叉验证</t>
-  </si>
-  <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>SST-1</t>
-  </si>
-  <si>
-    <t>an extension of MR. the prediction of the sentiment of movie reviews in the Stanford Sentiment Treebank (Richard Socher et al., 2013).</t>
-  </si>
-  <si>
-    <t>negative, somewhat negative, neutral, somewhat positive, positive</t>
-  </si>
-  <si>
-    <t>standard split</t>
-  </si>
-  <si>
-    <t>Richard Socher, et al.. 2013. Recursive deep models for semantic compositionality over a sentiment treebank. </t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>SST-2</t>
-  </si>
-  <si>
-    <t>Same as SST-1 but with neutral re-views removed and binary labels (Richard Socher et al., 2013)</t>
-  </si>
-  <si>
-    <t>positive or negative</t>
-  </si>
-  <si>
-    <t>TREC</t>
-  </si>
-  <si>
-    <t>Question Type Classification (Li and Roth, 2002)</t>
-  </si>
-  <si>
-    <t>six different question types, e.g. whether the question is about a location, about a person or about some numeric information</t>
-  </si>
-  <si>
-    <t>Sentiment140</t>
-  </si>
-  <si>
-    <t>Twitter Sentiment Prediction with Distant Supervision (Go et al. ,2009)</t>
-  </si>
-  <si>
-    <t>1.6 million tweets</t>
-  </si>
-  <si>
-    <t>Go, et al.. 2009.Twitter sentiment classification using distant supervision</t>
-  </si>
-  <si>
-    <t>Subj</t>
-  </si>
-  <si>
-    <t>Subjectivity dataset where the task is to classify a sentence as being subjective or objective (Pang and Lee, 2004). </t>
-  </si>
-  <si>
-    <t>subjective or objective</t>
-  </si>
-  <si>
-    <t>10000(5000 subjective and 5000 objective)</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Customer reviews of various products (5 products. Cameras, MP3s etc.). Task is to predict positive/negative reviews (Hu and Liu, 2004)</t>
-  </si>
-  <si>
-    <t>MPQA</t>
-  </si>
-  <si>
-    <t>Opinion polarity detection subtask of the MPQA dataset (Wiebe et al., 2005).</t>
-  </si>
-  <si>
-    <t>IMDB</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>movie reviews</t>
+      <t>movie reviews，</t>
     </r>
     <r>
       <rPr>
@@ -416,9 +332,31 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t>，</t>
+      <t>sentiment classification(Maas et al., 2011)</t>
+    </r>
+  </si>
+  <si>
+    <t>50K</t>
+  </si>
+  <si>
+    <t>25K</t>
+  </si>
+  <si>
+    <t>Andrew L. Maas, et al.. 2011. Learning word vectors for sentiment analysis.</t>
+  </si>
+  <si>
+    <t>Elec2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>electronics product reviews，</t>
     </r>
     <r>
       <rPr>
@@ -426,89 +364,44 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t>sentiment classification(Maas et al., 2011)</t>
+      <t>sentiment classification (Rie Johnson et al., 2015)</t>
     </r>
   </si>
   <si>
-    <t>50K</t>
-  </si>
-  <si>
-    <t>25K</t>
-  </si>
-  <si>
-    <t>Andrew L. Maas, et al.. 2011. Learning word vectors for sentiment analysis.</t>
-  </si>
-  <si>
-    <t>Elec2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>electronics product reviews</t>
-    </r>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>RCV1-multi</t>
+  </si>
+  <si>
+    <t>corpus of Reuters news articles. topic categorization.（一个样例可能有多标签）.(Lewis et al., 2004)。（数据不公开，需要申请。）</t>
+  </si>
+  <si>
+    <t>103（one document may be associated with more than one topic）</t>
+  </si>
+  <si>
+    <t>topic categories.</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>RCV1-single</t>
+  </si>
+  <si>
+    <t>corpus of Reuters news articles. topic categorization.（一个样例只有一个标签）.(Lewis et al., 2004)（数据不公开，需要申请。）</t>
+  </si>
+  <si>
+    <t>Google Snippets</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>sentiment classification (Rie Johnson et al., 2015)</t>
-    </r>
-  </si>
-  <si>
-    <t>10a</t>
-  </si>
-  <si>
-    <t>RCV1-multi</t>
-  </si>
-  <si>
-    <t>corpus of Reuters news articles. topic categorization.（一个样例可能有多标签）.(Lewis et al., 2004)。（数据不公开，需要申请。）</t>
-  </si>
-  <si>
-    <t>103（one document may be associated with more than one topic）</t>
-  </si>
-  <si>
-    <t>topic categories.</t>
-  </si>
-  <si>
-    <t>10b</t>
-  </si>
-  <si>
-    <t>RCV1-single</t>
-  </si>
-  <si>
-    <t>corpus of Reuters news articles. topic categorization.（一个样例只有一个标签）.(Lewis et al., 2004)（数据不公开，需要申请。）</t>
-  </si>
-  <si>
-    <t>Google Snippets</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>暂时找不到</t>
     </r>
@@ -518,7 +411,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>(Phanet al., 2008)</t>
     </r>
@@ -540,10 +432,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
+        <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>Kalchbrenner</t>
+      <t>Kalchbrenner，</t>
     </r>
     <r>
       <rPr>
@@ -551,9 +443,40 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t>，</t>
+      <t>ACL 2014</t>
+    </r>
+  </si>
+  <si>
+    <t>DCNN</t>
+  </si>
+  <si>
+    <t>Kim, EMNLP 2014</t>
+  </si>
+  <si>
+    <t>CNN_A10: CNN-rand</t>
+  </si>
+  <si>
+    <t>CNN_A20: CNN-static</t>
+  </si>
+  <si>
+    <t>CNN_A30: CNN-non-static</t>
+  </si>
+  <si>
+    <t>CNN_A40: CNN-multichannel</t>
+  </si>
+  <si>
+    <t>Le and Mikolov, 2014</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paragraph-Vec(数据来自</t>
     </r>
     <r>
       <rPr>
@@ -561,47 +484,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ACL 2014</t>
-    </r>
-  </si>
-  <si>
-    <t>DCNN</t>
-  </si>
-  <si>
-    <t>Kim, EMNLP 2014</t>
-  </si>
-  <si>
-    <t>Le and Mikolov, 2014</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>Paragraph-Vec(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>数据来自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>Kim,2014)</t>
     </r>
@@ -671,27 +553,6 @@
   </si>
   <si>
     <t>情感词库</t>
-  </si>
-  <si>
-    <t>DCNN (Dynamic Convolutional Neural Network) 模型图</t>
-  </si>
-  <si>
-    <t>作者</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>Seq-CNN/bow-CNN</t>
-  </si>
-  <si>
-    <t>Rie Johnson, NAACL HLT 2015</t>
-  </si>
-  <si>
-    <t>Peng Wang, et al..ACL 2015</t>
-  </si>
-  <si>
-    <t>MVCNN</t>
   </si>
 </sst>
 </file>
@@ -701,13 +562,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -730,14 +590,6 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -751,7 +603,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -759,7 +610,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -767,7 +617,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -775,7 +624,6 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -783,13 +631,11 @@
       <color rgb="FF801900"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -797,7 +643,6 @@
       <color rgb="FF801900"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -805,7 +650,6 @@
       <color rgb="FF800000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -813,7 +657,6 @@
       <color rgb="FF990000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -985,11 +828,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="98">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1014,11 +857,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1050,7 +893,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1070,11 +913,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1090,23 +933,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1114,27 +957,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,7 +993,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1194,18 +1037,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1214,7 +1057,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1234,26 +1077,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1270,7 +1113,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1318,14 +1161,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1334,7 +1177,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1350,11 +1193,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1380,22 +1223,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1471,327 +1298,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>467640</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="108000" y="210240"/>
-          <a:ext cx="5617440" cy="8007840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="108000" y="205920"/>
-          <a:ext cx="8017200" cy="3150720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>107280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>708840</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="107280" y="3179880"/>
-          <a:ext cx="5030640" cy="2036520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="81000" y="5452560"/>
-          <a:ext cx="5398560" cy="4636800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>788760</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="81000" y="186840"/>
-          <a:ext cx="6022440" cy="2916720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>565560</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 6" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="81000" y="189720"/>
-          <a:ext cx="4913640" cy="4817880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>644760</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="112680" y="227160"/>
-          <a:ext cx="5846760" cy="8342640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409320</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>253800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 8" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6609960" y="1888560"/>
-          <a:ext cx="9845640" cy="2369880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1799,25 +1305,25 @@
   </sheetPr>
   <dimension ref="1:59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="85.2672064777328"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="86.0161943319838"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
   </cols>
@@ -2718,7 +2224,7 @@
         <v>108</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="C38" s="49" t="n">
         <v>76.1</v>
@@ -2751,7 +2257,7 @@
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="47"/>
       <c r="B39" s="50" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C39" s="45" t="n">
         <v>81</v>
@@ -2784,7 +2290,7 @@
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="47"/>
       <c r="B40" s="50" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C40" s="52" t="n">
         <v>81.5</v>
@@ -2814,10 +2320,10 @@
       <c r="N40" s="46"/>
       <c r="O40" s="46"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="47"/>
       <c r="B41" s="50" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C41" s="45" t="n">
         <v>81.1</v>
@@ -2849,10 +2355,10 @@
     </row>
     <row r="42" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="54" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C42" s="39"/>
       <c r="D42" s="56" t="n">
@@ -2875,10 +2381,10 @@
     </row>
     <row r="43" s="62" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
@@ -2899,10 +2405,10 @@
     </row>
     <row r="44" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C44" s="64" t="n">
         <v>79</v>
@@ -2929,10 +2435,10 @@
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="58" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C45" s="64" t="n">
         <v>79.1</v>
@@ -3072,14 +2578,14 @@
       <c r="J50" s="74"/>
       <c r="K50" s="74"/>
       <c r="L50" s="75" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M50" s="75" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N50" s="76"/>
       <c r="O50" s="76" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,14 +2603,14 @@
       <c r="J51" s="77"/>
       <c r="K51" s="77"/>
       <c r="L51" s="78" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M51" s="78" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N51" s="79"/>
       <c r="O51" s="79" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,14 +2628,14 @@
       <c r="J52" s="77"/>
       <c r="K52" s="77"/>
       <c r="L52" s="78" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M52" s="78" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N52" s="79"/>
       <c r="O52" s="79" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" s="85" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,7 +2668,7 @@
         <v>25</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C54" s="74"/>
       <c r="D54" s="74"/>
@@ -3185,7 +2691,7 @@
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="66"/>
       <c r="B55" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C55" s="77"/>
       <c r="D55" s="77"/>
@@ -3208,7 +2714,7 @@
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="66"/>
       <c r="B56" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C56" s="81"/>
       <c r="D56" s="81"/>
@@ -3233,7 +2739,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="88" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C57" s="89"/>
       <c r="D57" s="90" t="n">
@@ -3262,7 +2768,7 @@
         <v>31</v>
       </c>
       <c r="B58" s="96" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C58" s="89"/>
       <c r="D58" s="89"/>
@@ -3273,13 +2779,13 @@
       <c r="I58" s="89"/>
       <c r="J58" s="89"/>
       <c r="L58" s="97" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M58" s="97" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O58" s="97" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3341,8 +2847,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3352,7 +2858,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3364,354 +2870,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.85425101214575"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="98"/>
-      <c r="I2" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="A Convolutional Neural Network for Modelling Sentences "/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="57.3076923076923"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.85425101214575"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="L1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L2" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" display="Convolutional Neural-Networks for Sentence Classification"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="85.2672064777328"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="L1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L2" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="19.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L3" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" display="Effective Use of Word Order for Text Categorization with Convolutional Neural Networks"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="80.3400809716599"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="Semantic-Clustering-and-Convolutional-Neural-Network-for-Short-Text-Categorization"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="64.4858299595142"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="J1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J2" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="Multichannel Variable-Size Convolution for Sentence Classification"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/dataset/公开数据集.xlsx
+++ b/dataset/公开数据集.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="数据集汇总" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,10 +33,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
       </rPr>
-      <t>Nal Kalchbrenner，</t>
+      <t>Nal Kalchbrenner</t>
     </r>
     <r>
       <rPr>
@@ -44,12 +44,23 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>ACL 2014</t>
     </r>
   </si>
   <si>
-    <t>A Convolutional Neural Network for Modelling Sentences </t>
+    <t>A Convolutional Neural Network for Modelling Sentences</t>
   </si>
   <si>
     <t>DCNN (Dynamic Convolutional Neural Network)</t>
@@ -161,6 +172,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>数据集</t>
     </r>
@@ -171,6 +183,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -321,10 +334,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
       </rPr>
-      <t>movie reviews，</t>
+      <t>movie reviews</t>
     </r>
     <r>
       <rPr>
@@ -332,31 +345,9 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>sentiment classification(Maas et al., 2011)</t>
-    </r>
-  </si>
-  <si>
-    <t>50K</t>
-  </si>
-  <si>
-    <t>25K</t>
-  </si>
-  <si>
-    <t>Andrew L. Maas, et al.. 2011. Learning word vectors for sentiment analysis.</t>
-  </si>
-  <si>
-    <t>Elec2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>electronics product reviews，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -364,44 +355,89 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>sentiment classification (Rie Johnson et al., 2015)</t>
+      <t>sentiment classification(Maas et al., 2011)</t>
     </r>
   </si>
   <si>
-    <t>10a</t>
-  </si>
-  <si>
-    <t>RCV1-multi</t>
-  </si>
-  <si>
-    <t>corpus of Reuters news articles. topic categorization.（一个样例可能有多标签）.(Lewis et al., 2004)。（数据不公开，需要申请。）</t>
-  </si>
-  <si>
-    <t>103（one document may be associated with more than one topic）</t>
-  </si>
-  <si>
-    <t>topic categories.</t>
-  </si>
-  <si>
-    <t>10b</t>
-  </si>
-  <si>
-    <t>RCV1-single</t>
-  </si>
-  <si>
-    <t>corpus of Reuters news articles. topic categorization.（一个样例只有一个标签）.(Lewis et al., 2004)（数据不公开，需要申请。）</t>
-  </si>
-  <si>
-    <t>Google Snippets</t>
-  </si>
-  <si>
+    <t>50K</t>
+  </si>
+  <si>
+    <t>25K</t>
+  </si>
+  <si>
+    <t>Andrew L. Maas, et al.. 2011. Learning word vectors for sentiment analysis.</t>
+  </si>
+  <si>
+    <t>Elec2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>electronics product reviews</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>sentiment classification (Rie Johnson et al., 2015)</t>
+    </r>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>RCV1-multi</t>
+  </si>
+  <si>
+    <t>corpus of Reuters news articles. topic categorization.（一个样例可能有多标签）.(Lewis et al., 2004)。（数据不公开，需要申请。）</t>
+  </si>
+  <si>
+    <t>103（one document may be associated with more than one topic）</t>
+  </si>
+  <si>
+    <t>topic categories.</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>RCV1-single</t>
+  </si>
+  <si>
+    <t>corpus of Reuters news articles. topic categorization.（一个样例只有一个标签）.(Lewis et al., 2004)（数据不公开，需要申请。）</t>
+  </si>
+  <si>
+    <t>Google Snippets</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>暂时找不到</t>
     </r>
@@ -411,6 +447,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>(Phanet al., 2008)</t>
     </r>
@@ -432,10 +469,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
       </rPr>
-      <t>Kalchbrenner，</t>
+      <t>Kalchbrenner</t>
     </r>
     <r>
       <rPr>
@@ -443,40 +480,9 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>ACL 2014</t>
-    </r>
-  </si>
-  <si>
-    <t>DCNN</t>
-  </si>
-  <si>
-    <t>Kim, EMNLP 2014</t>
-  </si>
-  <si>
-    <t>CNN_A10: CNN-rand</t>
-  </si>
-  <si>
-    <t>CNN_A20: CNN-static</t>
-  </si>
-  <si>
-    <t>CNN_A30: CNN-non-static</t>
-  </si>
-  <si>
-    <t>CNN_A40: CNN-multichannel</t>
-  </si>
-  <si>
-    <t>Le and Mikolov, 2014</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>Paragraph-Vec(数据来自</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -484,6 +490,59 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ACL 2014</t>
+    </r>
+  </si>
+  <si>
+    <t>DCNN</t>
+  </si>
+  <si>
+    <t>Kim, EMNLP 2014</t>
+  </si>
+  <si>
+    <t>CNN_A10: CNN-rand</t>
+  </si>
+  <si>
+    <t>CNN_A20: CNN-static</t>
+  </si>
+  <si>
+    <t>CNN_A30: CNN-non-static</t>
+  </si>
+  <si>
+    <t>CNN_A40: CNN-multichannel</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paragraph-Vec(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据来自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>Kim,2014)</t>
     </r>
@@ -562,12 +621,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -590,6 +650,14 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -603,6 +671,7 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -610,6 +679,7 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -617,6 +687,7 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -624,6 +695,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -631,11 +703,13 @@
       <color rgb="FF801900"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -643,6 +717,7 @@
       <color rgb="FF801900"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -650,6 +725,7 @@
       <color rgb="FF800000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -657,6 +733,7 @@
       <color rgb="FF990000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -828,7 +905,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -857,11 +934,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,7 +970,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,11 +990,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -933,23 +1010,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -957,27 +1034,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -993,7 +1070,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1037,18 +1114,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1057,7 +1134,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1077,7 +1154,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1093,7 +1170,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,7 +1190,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1161,14 +1238,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1177,7 +1254,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1193,11 +1270,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1305,25 +1382,25 @@
   </sheetPr>
   <dimension ref="1:59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="86.0161943319838"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.6720647773279"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
   </cols>
@@ -1355,7 +1432,7 @@
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -2807,7 +2884,7 @@
     <mergeCell ref="A54:A56"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="A Convolutional Neural Network for Modelling Sentences "/>
+    <hyperlink ref="C3" r:id="rId1" display="A Convolutional Neural Network for Modelling Sentences"/>
     <hyperlink ref="C4" r:id="rId2" display="Convolutional Neural-Networks for Sentence Classification"/>
     <hyperlink ref="C5" r:id="rId3" display="Effective Use of Word Order for Text Categorization with Convolutional Neural Networks"/>
     <hyperlink ref="C6" r:id="rId4" display="Semi-supervised convolutional neural networks for text categorization via region embedding"/>
@@ -2847,7 +2924,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/dataset/公开数据集.xlsx
+++ b/dataset/公开数据集.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="147">
   <si>
     <t>相关论文列表</t>
   </si>
@@ -29,15 +29,6 @@
     <t>模型</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nal Kalchbrenner</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -46,7 +37,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>，</t>
+      <t>Nal Kalchbrenner，</t>
     </r>
     <r>
       <rPr>
@@ -157,6 +148,24 @@
   </si>
   <si>
     <t>A Sensitivity Analysis of (and Practitioners’ Guide to) Convolutional Neural Networks for Sentence Classification</t>
+  </si>
+  <si>
+    <t>Xiang Zhang, et al. NIPS 2015</t>
+  </si>
+  <si>
+    <t>Character-level convolutional networks for text classification</t>
+  </si>
+  <si>
+    <t>Alexis Connuau, et al. ArXiv 2016</t>
+  </si>
+  <si>
+    <t>Very Deep Convolutional Networks for Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Rie Johnson, arXiv 2016</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks for Text Categorization: Shallow Word-level vs. Deep Character-level</t>
   </si>
   <si>
     <t>标签</t>
@@ -261,6 +270,9 @@
     <t>negative, somewhat negative, neutral, somewhat positive, positive</t>
   </si>
   <si>
+    <t>17818个,有16240个词出现 GooggleNews 模型中,1576个个未出现</t>
+  </si>
+  <si>
     <t>standard split</t>
   </si>
   <si>
@@ -273,12 +285,15 @@
     <t>SST-2</t>
   </si>
   <si>
-    <t>Same as SST-1 but with neutral re-views removed and binary labels (Richard Socher et al., 2013)</t>
+    <t>Same as SST-1 but with neutral reviews removed and binary labels (Richard Socher et al., 2013)</t>
   </si>
   <si>
     <t>positive or negative</t>
   </si>
   <si>
+    <t>16173个,有14808个词出现 GooggleNews 模型中,1363个个未出现</t>
+  </si>
+  <si>
     <t>TREC</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>six different question types, e.g. whether the question is about a location, about a person or about some numeric information</t>
   </si>
   <si>
+    <t>9613个,有9138个词出现 GooggleNews 模型中,473个个未出现</t>
+  </si>
+  <si>
     <t>Sentiment140</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>10000(5000 subjective and 5000 objective)</t>
   </si>
   <si>
+    <t>21322个,有17913个词出现 GooggleNews 模型中,3409个个未出现</t>
+  </si>
+  <si>
     <t>CV</t>
   </si>
   <si>
@@ -330,15 +351,6 @@
     <t>IMDB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>movie reviews</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -347,7 +359,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>，</t>
+      <t>movie reviews，</t>
     </r>
     <r>
       <rPr>
@@ -377,20 +389,11 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>electronics product reviews</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>，</t>
+      <t>electronics product reviews，</t>
     </r>
     <r>
       <rPr>
@@ -469,20 +472,11 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kalchbrenner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>，</t>
+      <t>Kalchbrenner，</t>
     </r>
     <r>
       <rPr>
@@ -521,20 +515,11 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>Paragraph-Vec(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>数据来自</t>
+      <t>Paragraph-Vec(数据来自</t>
     </r>
     <r>
       <rPr>
@@ -621,7 +606,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -658,12 +643,6 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -736,12 +715,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -905,11 +896,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -934,11 +925,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,10 +945,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -970,7 +957,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -990,11 +977,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1002,6 +997,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1010,23 +1017,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1034,27 +1041,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1070,7 +1077,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1114,18 +1121,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1134,7 +1141,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1154,26 +1161,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1190,7 +1197,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1238,14 +1245,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1254,7 +1261,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1270,11 +1277,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1380,29 +1387,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:59"/>
+  <dimension ref="1:60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.74898785425101"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,11 +1619,16 @@
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -1625,9 +1637,16 @@
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="C12" s="0"/>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -1636,495 +1655,518 @@
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="C14" s="0"/>
-      <c r="D14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" s="14" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" s="13" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="F16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="K16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="1" t="n">
+      <c r="B18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="E18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="G18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="16" t="n">
+      <c r="E19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="15" t="n">
         <v>11855</v>
       </c>
-      <c r="G18" s="0"/>
-      <c r="H18" s="16" t="n">
+      <c r="G19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="15" t="n">
         <v>8544</v>
       </c>
-      <c r="I18" s="0"/>
-      <c r="J18" s="16" t="n">
+      <c r="I19" s="0"/>
+      <c r="J19" s="15" t="n">
         <v>1101</v>
       </c>
-      <c r="K18" s="16" t="n">
+      <c r="K19" s="15" t="n">
         <v>2210</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="16" t="n">
+      <c r="L19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="16" t="n">
+      <c r="E20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="15" t="n">
         <v>9613</v>
       </c>
-      <c r="G19" s="0"/>
-      <c r="H19" s="16" t="n">
+      <c r="G20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="15" t="n">
         <v>6920</v>
       </c>
-      <c r="I19" s="0"/>
-      <c r="J19" s="16" t="n">
+      <c r="I20" s="0"/>
+      <c r="J20" s="15" t="n">
         <v>872</v>
       </c>
-      <c r="K19" s="16" t="n">
+      <c r="K20" s="15" t="n">
         <v>1821</v>
       </c>
-      <c r="L19" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="16" t="n">
-        <v>15448</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="n">
+      <c r="L20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="16" t="n">
+      <c r="B21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="16" t="n">
+      <c r="E21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="15" t="n">
         <v>5952</v>
       </c>
-      <c r="G20" s="0"/>
-      <c r="H20" s="16" t="n">
+      <c r="G21" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="15" t="n">
         <v>5452</v>
       </c>
-      <c r="I20" s="0"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16" t="n">
+      <c r="I21" s="0"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="n">
+      <c r="L21" s="15"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="16" t="n">
+      <c r="B22" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="0"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16" t="n">
+      <c r="E22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="0"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15" t="n">
         <v>400</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16" t="n">
+      <c r="L22" s="15"/>
+      <c r="M22" s="15" t="n">
         <v>76643</v>
       </c>
-      <c r="N21" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="N22" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>82</v>
+      <c r="B23" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>3775</v>
-      </c>
-      <c r="G23" s="0"/>
+      <c r="E23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>84</v>
+        <v>6</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>10606</v>
+        <v>3775</v>
       </c>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>86</v>
+        <v>7</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>10606</v>
       </c>
       <c r="G25" s="0"/>
-      <c r="H25" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="H25" s="0"/>
       <c r="I25" s="0"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="J25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>91</v>
+      <c r="K25" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="G26" s="0"/>
       <c r="H26" s="9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="0"/>
+        <v>75</v>
+      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="0"/>
-      <c r="H27" s="1" t="n">
-        <v>23149</v>
+      <c r="H27" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
-      <c r="K27" s="1" t="n">
-        <v>781265</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>55</v>
+    </row>
+    <row r="28" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="H28" s="1" t="n">
-        <v>15564</v>
+        <v>23149</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="1" t="n">
-        <v>49838</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
+        <v>781265</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="1" t="n">
-        <v>10060</v>
+        <v>15564</v>
       </c>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="1" t="n">
-        <v>2280</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+        <v>49838</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="D30" s="0"/>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
+      <c r="H30" s="1" t="n">
+        <v>10060</v>
+      </c>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
+      <c r="K30" s="1" t="n">
+        <v>2280</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="9"/>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
@@ -2134,24 +2176,22 @@
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
     </row>
-    <row r="32" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27" t="s">
-        <v>103</v>
-      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+    </row>
+    <row r="33" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
@@ -2159,566 +2199,555 @@
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-    </row>
-    <row r="34" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="33" t="s">
+    </row>
+    <row r="34" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+    </row>
+    <row r="35" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" s="32" t="s">
+      <c r="E35" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J34" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="K34" s="32" t="s">
+      <c r="H35" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="M35" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="N35" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AMJ35" s="40"/>
+    </row>
+    <row r="36" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E36" s="44" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="F36" s="44" t="n">
+        <v>93</v>
+      </c>
+      <c r="G36" s="44" t="n">
+        <v>87.4</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="41"/>
+      <c r="B37" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E37" s="49" t="n">
+        <v>77.1</v>
+      </c>
+      <c r="F37" s="49" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="G37" s="49" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="41"/>
+      <c r="B38" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="E38" s="49" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="F38" s="49" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="G38" s="49" t="n">
+        <v>80.9</v>
+      </c>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+    </row>
+    <row r="39" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="53" t="n">
+        <v>76.1</v>
+      </c>
+      <c r="D39" s="53" t="n">
+        <v>45</v>
+      </c>
+      <c r="E39" s="53" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="F39" s="43" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43" t="n">
+        <v>89.6</v>
+      </c>
+      <c r="I39" s="43" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J39" s="43" t="n">
+        <v>83.4</v>
+      </c>
+      <c r="K39" s="43"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="51"/>
+      <c r="B40" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="49" t="n">
+        <v>81</v>
+      </c>
+      <c r="D40" s="49" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="E40" s="49" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="F40" s="48" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48" t="n">
+        <v>93</v>
+      </c>
+      <c r="I40" s="48" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="J40" s="55" t="n">
+        <v>89.6</v>
+      </c>
+      <c r="K40" s="55"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="51"/>
+      <c r="B41" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="56" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D41" s="49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E41" s="49" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F41" s="48" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48" t="n">
+        <v>93.4</v>
+      </c>
+      <c r="I41" s="48" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="J41" s="48" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="K41" s="48"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="51"/>
+      <c r="B42" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="49" t="n">
+        <v>81.1</v>
+      </c>
+      <c r="D42" s="48" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E42" s="57" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="F42" s="48" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="I42" s="55" t="n">
         <v>85</v>
       </c>
-      <c r="M34" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="N34" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="O34" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="AMJ34" s="36"/>
-    </row>
-    <row r="35" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E35" s="40" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="F35" s="40" t="n">
-        <v>93</v>
-      </c>
-      <c r="G35" s="40" t="n">
-        <v>87.4</v>
-      </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37"/>
-      <c r="B36" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E36" s="45" t="n">
-        <v>77.1</v>
-      </c>
-      <c r="F36" s="45" t="n">
-        <v>84.4</v>
-      </c>
-      <c r="G36" s="45" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37"/>
-      <c r="B37" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="45" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="E37" s="45" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="F37" s="45" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="G37" s="45" t="n">
-        <v>80.9</v>
-      </c>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-    </row>
-    <row r="38" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="49" t="n">
-        <v>76.1</v>
-      </c>
-      <c r="D38" s="49" t="n">
-        <v>45</v>
-      </c>
-      <c r="E38" s="49" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="F38" s="39" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39" t="n">
-        <v>89.6</v>
-      </c>
-      <c r="I38" s="39" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="J38" s="39" t="n">
-        <v>83.4</v>
-      </c>
-      <c r="K38" s="39"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="47"/>
-      <c r="B39" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="45" t="n">
-        <v>81</v>
-      </c>
-      <c r="D39" s="45" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="E39" s="45" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="F39" s="44" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44" t="n">
-        <v>93</v>
-      </c>
-      <c r="I39" s="44" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="J39" s="51" t="n">
-        <v>89.6</v>
-      </c>
-      <c r="K39" s="51"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="47"/>
-      <c r="B40" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="52" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D40" s="45" t="n">
-        <v>48</v>
-      </c>
-      <c r="E40" s="45" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="F40" s="44" t="n">
+      <c r="J42" s="48" t="n">
+        <v>89.4</v>
+      </c>
+      <c r="K42" s="48"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+    </row>
+    <row r="43" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="60" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E43" s="43" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="AMJ43" s="61"/>
+    </row>
+    <row r="44" s="66" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65" t="n">
+        <v>95</v>
+      </c>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="AMJ44" s="67"/>
+    </row>
+    <row r="45" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="68" t="n">
+        <v>79</v>
+      </c>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="68" t="n">
         <v>93.6</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="I40" s="44" t="n">
-        <v>84.3</v>
-      </c>
-      <c r="J40" s="44" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="47"/>
-      <c r="B41" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="45" t="n">
-        <v>81.1</v>
-      </c>
-      <c r="D41" s="44" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E41" s="53" t="n">
-        <v>88.1</v>
-      </c>
-      <c r="F41" s="44" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="I41" s="51" t="n">
-        <v>85</v>
-      </c>
-      <c r="J41" s="44" t="n">
-        <v>89.4</v>
-      </c>
-      <c r="K41" s="44"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-    </row>
-    <row r="42" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="56" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E42" s="39" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="AMJ42" s="57"/>
-    </row>
-    <row r="43" s="62" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61" t="n">
-        <v>95</v>
-      </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="AMJ43" s="63"/>
-    </row>
-    <row r="44" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="64" t="n">
-        <v>79</v>
-      </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="64" t="n">
-        <v>93.6</v>
-      </c>
-      <c r="I44" s="64" t="n">
+      <c r="I45" s="68" t="n">
         <v>80</v>
       </c>
-      <c r="J44" s="64" t="n">
+      <c r="J45" s="68" t="n">
         <v>86.3</v>
       </c>
-      <c r="K44" s="64"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="AMJ44" s="63"/>
-    </row>
-    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="64" t="n">
-        <v>79.1</v>
-      </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="51" t="n">
-        <v>93.6</v>
-      </c>
-      <c r="I45" s="64" t="n">
-        <v>81.9</v>
-      </c>
-      <c r="J45" s="64" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="K45" s="64"/>
+      <c r="K45" s="68"/>
       <c r="L45" s="64"/>
       <c r="M45" s="64"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="AMJ45" s="63"/>
-    </row>
-    <row r="46" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="66" t="s">
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="AMJ45" s="67"/>
+    </row>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="68" t="n">
+        <v>79.1</v>
+      </c>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="55" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="I46" s="68" t="n">
+        <v>81.9</v>
+      </c>
+      <c r="J46" s="68" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="AMJ46" s="67"/>
+    </row>
+    <row r="47" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B47" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39" t="n">
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43" t="n">
         <v>8.66</v>
       </c>
-      <c r="M46" s="39" t="n">
+      <c r="M47" s="43" t="n">
         <v>8.39</v>
       </c>
-      <c r="N46" s="0"/>
-      <c r="O46" s="39" t="n">
+      <c r="N47" s="0"/>
+      <c r="O47" s="43" t="n">
         <v>9.33</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="66"/>
-      <c r="B47" s="68" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="70"/>
+      <c r="B48" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44" t="n">
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48" t="n">
         <v>8.39</v>
       </c>
-      <c r="M47" s="44" t="n">
+      <c r="M48" s="48" t="n">
         <v>7.64</v>
       </c>
-      <c r="N47" s="46"/>
-      <c r="O47" s="44" t="n">
+      <c r="N48" s="50"/>
+      <c r="O48" s="48" t="n">
         <v>9.96</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="66"/>
-      <c r="B48" s="68" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="70"/>
+      <c r="B49" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44" t="n">
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48" t="n">
         <v>8.04</v>
       </c>
-      <c r="M48" s="44" t="n">
+      <c r="M49" s="48" t="n">
         <v>7.48</v>
       </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="66"/>
-      <c r="B49" s="68" t="s">
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="70"/>
+      <c r="B50" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="70" t="n">
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="74" t="n">
         <v>7.67</v>
       </c>
-      <c r="M49" s="70" t="n">
+      <c r="M50" s="74" t="n">
         <v>7.14</v>
       </c>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-    </row>
-    <row r="50" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="72" t="s">
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
+    </row>
+    <row r="51" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B51" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="M50" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="72"/>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="M51" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="76"/>
+      <c r="B52" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="M51" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="72"/>
-      <c r="B52" s="0" t="s">
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="M52" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="76"/>
+      <c r="B53" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="M52" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" s="85" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="72"/>
-      <c r="B53" s="80" t="s">
-        <v>24</v>
       </c>
       <c r="C53" s="81"/>
       <c r="D53" s="81"/>
@@ -2729,159 +2758,184 @@
       <c r="I53" s="81"/>
       <c r="J53" s="81"/>
       <c r="K53" s="81"/>
-      <c r="L53" s="82" t="n">
+      <c r="L53" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="M53" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" s="89" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="76"/>
+      <c r="B54" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="86" t="n">
         <v>6.51</v>
       </c>
-      <c r="M53" s="83" t="n">
+      <c r="M54" s="87" t="n">
         <v>6.27</v>
       </c>
-      <c r="N53" s="84"/>
-      <c r="O53" s="83" t="n">
+      <c r="N54" s="88"/>
+      <c r="O54" s="87" t="n">
         <v>7.71</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="66" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74" t="n">
+      <c r="B55" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78" t="n">
         <v>96.4</v>
       </c>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74" t="n">
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78" t="n">
         <v>83.6</v>
       </c>
-      <c r="L54" s="74"/>
-      <c r="M54" s="74"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="66"/>
-      <c r="B55" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="86" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77" t="n">
-        <v>84.4</v>
-      </c>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="66"/>
+      <c r="A56" s="70"/>
       <c r="B56" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C56" s="81"/>
       <c r="D56" s="81"/>
       <c r="E56" s="81"/>
-      <c r="F56" s="81" t="n">
-        <v>95.6</v>
+      <c r="F56" s="90" t="n">
+        <v>97.2</v>
       </c>
       <c r="G56" s="81"/>
       <c r="H56" s="81"/>
       <c r="I56" s="81"/>
       <c r="J56" s="81"/>
-      <c r="K56" s="83" t="n">
+      <c r="K56" s="81" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="70"/>
+      <c r="B57" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="87" t="n">
         <v>85.1</v>
       </c>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-    </row>
-    <row r="57" s="94" customFormat="true" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="87" t="s">
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+    </row>
+    <row r="58" s="98" customFormat="true" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="90" t="n">
+      <c r="B58" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94" t="n">
         <v>49.6</v>
       </c>
-      <c r="E57" s="91" t="n">
+      <c r="E58" s="95" t="n">
         <v>89.4</v>
       </c>
-      <c r="F57" s="89"/>
-      <c r="G57" s="91" t="n">
+      <c r="F58" s="93"/>
+      <c r="G58" s="95" t="n">
         <v>88.2</v>
       </c>
-      <c r="H57" s="92" t="n">
+      <c r="H58" s="96" t="n">
         <v>93.9</v>
       </c>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="93"/>
-      <c r="M57" s="93"/>
-      <c r="N57" s="93"/>
-      <c r="O57" s="93"/>
-    </row>
-    <row r="58" s="93" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="95" t="s">
+      <c r="I58" s="93"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="97"/>
+      <c r="M58" s="97"/>
+      <c r="N58" s="97"/>
+      <c r="O58" s="97"/>
+    </row>
+    <row r="59" s="97" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="J58" s="89"/>
-      <c r="L58" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="M58" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="O58" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B59" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="L59" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="M59" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="O59" s="101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="A Convolutional Neural Network for Modelling Sentences"/>
@@ -2892,20 +2946,23 @@
     <hyperlink ref="C8" r:id="rId6" display="Multichannel Variable-Size Convolution for Sentence Classification"/>
     <hyperlink ref="C9" r:id="rId7" display="Supervised and Semi-Supervised Text Categorization using LSTM for Region Embeddings"/>
     <hyperlink ref="C10" r:id="rId8" display="A Sensitivity Analysis of (and Practitioners’ Guide to) Convolutional Neural Networks for Sentence Classification"/>
-    <hyperlink ref="B17" r:id="rId9" display="MR"/>
-    <hyperlink ref="B18" r:id="rId10" display="SST-1"/>
-    <hyperlink ref="B19" r:id="rId11" display="SST-2"/>
-    <hyperlink ref="B20" r:id="rId12" display="TREC"/>
-    <hyperlink ref="B21" r:id="rId13" display="Sentiment140"/>
-    <hyperlink ref="B22" r:id="rId14" display="Subj"/>
-    <hyperlink ref="B23" r:id="rId15" display="CR"/>
-    <hyperlink ref="B24" r:id="rId16" display="MPQA"/>
-    <hyperlink ref="B25" r:id="rId17" display="IMDB"/>
-    <hyperlink ref="B26" r:id="rId18" display="Elec2"/>
-    <hyperlink ref="B27" r:id="rId19" display="RCV1-multi"/>
-    <hyperlink ref="B28" r:id="rId20" display="RCV1-single"/>
-    <hyperlink ref="G34" r:id="rId21" display="Sentiment140"/>
-    <hyperlink ref="M34" r:id="rId22" display="Elec2"/>
+    <hyperlink ref="C11" r:id="rId9" display="Character-level convolutional networks for text classification"/>
+    <hyperlink ref="C12" r:id="rId10" display="Very Deep Convolutional Networks for Natural Language Processing"/>
+    <hyperlink ref="C13" r:id="rId11" display="Convolutional Neural Networks for Text Categorization: Shallow Word-level vs. Deep Character-level"/>
+    <hyperlink ref="B18" r:id="rId12" display="MR"/>
+    <hyperlink ref="B19" r:id="rId13" display="SST-1"/>
+    <hyperlink ref="B20" r:id="rId14" display="SST-2"/>
+    <hyperlink ref="B21" r:id="rId15" display="TREC"/>
+    <hyperlink ref="B22" r:id="rId16" display="Sentiment140"/>
+    <hyperlink ref="B23" r:id="rId17" display="Subj"/>
+    <hyperlink ref="B24" r:id="rId18" display="CR"/>
+    <hyperlink ref="B25" r:id="rId19" display="MPQA"/>
+    <hyperlink ref="B26" r:id="rId20" display="IMDB"/>
+    <hyperlink ref="B27" r:id="rId21" display="Elec2"/>
+    <hyperlink ref="B28" r:id="rId22" display="RCV1-multi"/>
+    <hyperlink ref="B29" r:id="rId23" display="RCV1-single"/>
+    <hyperlink ref="G35" r:id="rId24" display="Sentiment140"/>
+    <hyperlink ref="M35" r:id="rId25" display="Elec2"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2924,18 +2981,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.74898785425101"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/公开数据集.xlsx
+++ b/dataset/公开数据集.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据集汇总" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="可用资源汇总" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="12 AG-news" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="163">
   <si>
     <t>相关论文列表</t>
   </si>
@@ -29,6 +30,16 @@
     <t>模型</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Nal Kalchbrenner</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -37,7 +48,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Nal Kalchbrenner，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -355,11 +366,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>movie reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>movie reviews，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -389,11 +410,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>electronics product reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>electronics product reviews，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -459,6 +490,12 @@
     <t>Xuan-Hieu Phan, et al.2008. Learning to classify short and sparse text &amp; web with hidden topicsfrom large-scale data collections.</t>
   </si>
   <si>
+    <t>AG’s News</t>
+  </si>
+  <si>
+    <t>AG is a collection of more than 1 million news articles</t>
+  </si>
+  <si>
     <t>统计的是正确率</t>
   </si>
   <si>
@@ -468,6 +505,16 @@
     <t>模型\数据集</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Kalchbrenner</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -476,7 +523,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Kalchbrenner，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -515,11 +562,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Paragraph-Vec(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Paragraph-Vec(数据来自</t>
+      <t>数据来自</t>
     </r>
     <r>
       <rPr>
@@ -598,6 +655,162 @@
   <si>
     <t>情感词库</t>
   </si>
+  <si>
+    <t>下载地址</t>
+  </si>
+  <si>
+    <t>https://github.com/zhangxiangxiao/Crepe</t>
+  </si>
+  <si>
+    <t>Xiang Zhang, et al. Character-level convolutional networks for text classification. NIPS 2015</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Topic categories.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>AG NEWs is a collection of more than 1 million news articles</t>
+  </si>
+  <si>
+    <t>类别数</t>
+  </si>
+  <si>
+    <t>类别名</t>
+  </si>
+  <si>
+    <t>World,   Sports,    Business,  Sci/Tech</t>
+  </si>
+  <si>
+    <t>句子长度</t>
+  </si>
+  <si>
+    <t>字典数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>最长 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>= 191 , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>最短 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>= 3 ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>平均 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>= 34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>最长 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>= 148 , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>最短 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>= 6 ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>平均 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>= 33</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +819,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -713,6 +926,19 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -900,7 +1126,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="113">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -921,42 +1147,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -993,16 +1223,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1065,7 +1299,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1105,10 +1339,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1137,7 +1367,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1307,6 +1537,46 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1387,29 +1657,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:60"/>
+  <dimension ref="1:65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.5465587044534"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="104.704453441296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.2955465587045"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.0080971659919"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.7935222672065"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.0445344129555"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6599190283401"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.6963562753036"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,16 +2016,16 @@
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J17" s="0"/>
@@ -1764,67 +2034,67 @@
       <c r="A18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="15" t="n">
+      <c r="D19" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="15" t="n">
+      <c r="F19" s="16" t="n">
         <v>11855</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="15" t="n">
+      <c r="H19" s="16" t="n">
         <v>8544</v>
       </c>
       <c r="I19" s="0"/>
-      <c r="J19" s="15" t="n">
+      <c r="J19" s="16" t="n">
         <v>1101</v>
       </c>
-      <c r="K19" s="15" t="n">
+      <c r="K19" s="16" t="n">
         <v>2210</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="16" t="s">
         <v>70</v>
       </c>
       <c r="M19" s="1"/>
@@ -1833,86 +2103,86 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="15" t="n">
+      <c r="D20" s="16" t="n">
         <v>2</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="15" t="n">
+      <c r="F20" s="16" t="n">
         <v>9613</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="15" t="n">
+      <c r="H20" s="16" t="n">
         <v>6920</v>
       </c>
       <c r="I20" s="0"/>
-      <c r="J20" s="15" t="n">
+      <c r="J20" s="16" t="n">
         <v>872</v>
       </c>
-      <c r="K20" s="15" t="n">
+      <c r="K20" s="16" t="n">
         <v>1821</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="15"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="D21" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="15" t="n">
+      <c r="F21" s="16" t="n">
         <v>5952</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="15" t="n">
+      <c r="H21" s="16" t="n">
         <v>5452</v>
       </c>
       <c r="I21" s="0"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15" t="n">
+      <c r="J21" s="16"/>
+      <c r="K21" s="16" t="n">
         <v>500</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="n">
+      <c r="A22" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="15" t="n">
+      <c r="D22" s="16" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -1920,16 +2190,16 @@
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="16" t="s">
         <v>83</v>
       </c>
       <c r="I22" s="0"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15" t="n">
+      <c r="J22" s="16"/>
+      <c r="K22" s="16" t="n">
         <v>400</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15" t="n">
+      <c r="L22" s="16"/>
+      <c r="M22" s="16" t="n">
         <v>76643</v>
       </c>
       <c r="N22" s="0" t="s">
@@ -1940,10 +2210,10 @@
       <c r="A23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D23" s="1" t="n">
@@ -1952,10 +2222,10 @@
       <c r="E23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H23" s="0"/>
@@ -1971,10 +2241,10 @@
       <c r="A24" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -2000,10 +2270,10 @@
       <c r="A25" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -2026,13 +2296,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="n">
+      <c r="A26" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D26" s="1" t="n">
@@ -2058,13 +2328,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="n">
+      <c r="A27" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="1" t="n">
@@ -2091,10 +2361,10 @@
       <c r="B28" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -2118,7 +2388,7 @@
       <c r="B29" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="26" t="s">
         <v>109</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -2138,14 +2408,14 @@
         <v>49838</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="n">
         <v>11</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="26" t="s">
         <v>111</v>
       </c>
       <c r="D30" s="0"/>
@@ -2165,10 +2435,18 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="0"/>
+      <c r="A31" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -2177,7 +2455,7 @@
       <c r="J31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="0"/>
@@ -2188,738 +2466,798 @@
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
     </row>
-    <row r="33" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-    </row>
-    <row r="34" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-    </row>
-    <row r="35" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="28"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="28"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+    </row>
+    <row r="38" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+    </row>
+    <row r="39" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+    </row>
+    <row r="40" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D40" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E40" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F40" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G40" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H40" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I40" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J35" s="36" t="s">
+      <c r="J40" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K40" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="L35" s="38" t="s">
+      <c r="L40" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="M35" s="38" t="s">
+      <c r="M40" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="38" t="s">
+      <c r="N40" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="O35" s="38" t="s">
+      <c r="O40" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AMJ35" s="40"/>
-    </row>
-    <row r="36" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44" t="n">
+      <c r="AMJ40" s="42"/>
+    </row>
+    <row r="41" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46" t="n">
         <v>48.5</v>
       </c>
-      <c r="E36" s="44" t="n">
+      <c r="E41" s="46" t="n">
         <v>86.8</v>
       </c>
-      <c r="F36" s="44" t="n">
+      <c r="F41" s="46" t="n">
         <v>93</v>
       </c>
-      <c r="G36" s="44" t="n">
+      <c r="G41" s="46" t="n">
         <v>87.4</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41"/>
-      <c r="B37" s="47" t="s">
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="43"/>
+      <c r="B42" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49" t="n">
+      <c r="C42" s="50"/>
+      <c r="D42" s="51" t="n">
         <v>37.4</v>
       </c>
-      <c r="E37" s="49" t="n">
+      <c r="E42" s="51" t="n">
         <v>77.1</v>
       </c>
-      <c r="F37" s="49" t="n">
+      <c r="F42" s="51" t="n">
         <v>84.4</v>
       </c>
-      <c r="G37" s="49" t="n">
+      <c r="G42" s="51" t="n">
         <v>78.8</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41"/>
-      <c r="B38" s="47" t="s">
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="43"/>
+      <c r="B43" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49" t="n">
+      <c r="C43" s="50"/>
+      <c r="D43" s="51" t="n">
         <v>42.4</v>
       </c>
-      <c r="E38" s="49" t="n">
+      <c r="E43" s="51" t="n">
         <v>80.5</v>
       </c>
-      <c r="F38" s="49" t="n">
+      <c r="F43" s="51" t="n">
         <v>88.2</v>
       </c>
-      <c r="G38" s="49" t="n">
+      <c r="G43" s="51" t="n">
         <v>80.9</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-    </row>
-    <row r="39" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="53" t="n">
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+    </row>
+    <row r="44" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="54" t="n">
         <v>76.1</v>
       </c>
-      <c r="D39" s="53" t="n">
+      <c r="D44" s="54" t="n">
         <v>45</v>
       </c>
-      <c r="E39" s="53" t="n">
+      <c r="E44" s="54" t="n">
         <v>82.7</v>
       </c>
-      <c r="F39" s="43" t="n">
+      <c r="F44" s="45" t="n">
         <v>91.2</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43" t="n">
+      <c r="G44" s="45"/>
+      <c r="H44" s="45" t="n">
         <v>89.6</v>
       </c>
-      <c r="I39" s="43" t="n">
+      <c r="I44" s="45" t="n">
         <v>79.8</v>
       </c>
-      <c r="J39" s="43" t="n">
+      <c r="J44" s="45" t="n">
         <v>83.4</v>
       </c>
-      <c r="K39" s="43"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="51"/>
-      <c r="B40" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="49" t="n">
+      <c r="K44" s="45"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="43"/>
+      <c r="B45" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="51" t="n">
         <v>81</v>
       </c>
-      <c r="D40" s="49" t="n">
+      <c r="D45" s="51" t="n">
         <v>45.5</v>
       </c>
-      <c r="E40" s="49" t="n">
+      <c r="E45" s="51" t="n">
         <v>86.8</v>
       </c>
-      <c r="F40" s="48" t="n">
+      <c r="F45" s="50" t="n">
         <v>92.8</v>
       </c>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48" t="n">
+      <c r="G45" s="50"/>
+      <c r="H45" s="50" t="n">
         <v>93</v>
       </c>
-      <c r="I40" s="48" t="n">
+      <c r="I45" s="50" t="n">
         <v>84.7</v>
       </c>
-      <c r="J40" s="55" t="n">
+      <c r="J45" s="56" t="n">
         <v>89.6</v>
       </c>
-      <c r="K40" s="55"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="51"/>
-      <c r="B41" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="56" t="n">
+      <c r="K45" s="56"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="43"/>
+      <c r="B46" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="57" t="n">
         <v>81.5</v>
       </c>
-      <c r="D41" s="49" t="n">
+      <c r="D46" s="51" t="n">
         <v>48</v>
       </c>
-      <c r="E41" s="49" t="n">
+      <c r="E46" s="51" t="n">
         <v>87.2</v>
       </c>
-      <c r="F41" s="48" t="n">
+      <c r="F46" s="50" t="n">
         <v>93.6</v>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48" t="n">
+      <c r="G46" s="50"/>
+      <c r="H46" s="50" t="n">
         <v>93.4</v>
       </c>
-      <c r="I41" s="48" t="n">
+      <c r="I46" s="50" t="n">
         <v>84.3</v>
       </c>
-      <c r="J41" s="48" t="n">
+      <c r="J46" s="50" t="n">
         <v>89.5</v>
       </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51"/>
-      <c r="B42" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="49" t="n">
+      <c r="K46" s="50"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="43"/>
+      <c r="B47" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="51" t="n">
         <v>81.1</v>
       </c>
-      <c r="D42" s="48" t="n">
+      <c r="D47" s="50" t="n">
         <v>47.4</v>
       </c>
-      <c r="E42" s="57" t="n">
+      <c r="E47" s="58" t="n">
         <v>88.1</v>
       </c>
-      <c r="F42" s="48" t="n">
+      <c r="F47" s="50" t="n">
         <v>92.2</v>
       </c>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48" t="n">
+      <c r="G47" s="50"/>
+      <c r="H47" s="50" t="n">
         <v>93.2</v>
       </c>
-      <c r="I42" s="55" t="n">
+      <c r="I47" s="56" t="n">
         <v>85</v>
       </c>
-      <c r="J42" s="48" t="n">
+      <c r="J47" s="50" t="n">
         <v>89.4</v>
       </c>
-      <c r="K42" s="48"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-    </row>
-    <row r="43" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="60" t="n">
+      <c r="K47" s="50"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+    </row>
+    <row r="48" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="61" t="n">
         <v>48.7</v>
       </c>
-      <c r="E43" s="43" t="n">
+      <c r="E48" s="45" t="n">
         <v>87.8</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="AMJ43" s="61"/>
-    </row>
-    <row r="44" s="66" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="65" t="n">
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="AMJ48" s="62"/>
+    </row>
+    <row r="49" s="67" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66" t="n">
         <v>95</v>
       </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="AMJ44" s="67"/>
-    </row>
-    <row r="45" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="68" t="n">
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="AMJ49" s="68"/>
+    </row>
+    <row r="50" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="69" t="n">
         <v>79</v>
       </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="68" t="n">
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="69" t="n">
         <v>93.6</v>
       </c>
-      <c r="I45" s="68" t="n">
+      <c r="I50" s="69" t="n">
         <v>80</v>
       </c>
-      <c r="J45" s="68" t="n">
+      <c r="J50" s="69" t="n">
         <v>86.3</v>
       </c>
-      <c r="K45" s="68"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="AMJ45" s="67"/>
-    </row>
-    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="68" t="n">
+      <c r="K50" s="69"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="AMJ50" s="68"/>
+    </row>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="69" t="n">
         <v>79.1</v>
       </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="55" t="n">
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="56" t="n">
         <v>93.6</v>
       </c>
-      <c r="I46" s="68" t="n">
+      <c r="I51" s="69" t="n">
         <v>81.9</v>
       </c>
-      <c r="J46" s="68" t="n">
+      <c r="J51" s="69" t="n">
         <v>86.3</v>
       </c>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="AMJ46" s="67"/>
-    </row>
-    <row r="47" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="70" t="s">
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="AMJ51" s="68"/>
+    </row>
+    <row r="52" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B52" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43" t="n">
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45" t="n">
         <v>8.66</v>
       </c>
-      <c r="M47" s="43" t="n">
+      <c r="M52" s="45" t="n">
         <v>8.39</v>
       </c>
-      <c r="N47" s="0"/>
-      <c r="O47" s="43" t="n">
+      <c r="N52" s="0"/>
+      <c r="O52" s="45" t="n">
         <v>9.33</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="70"/>
-      <c r="B48" s="72" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="71"/>
+      <c r="B53" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48" t="n">
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50" t="n">
         <v>8.39</v>
       </c>
-      <c r="M48" s="48" t="n">
+      <c r="M53" s="50" t="n">
         <v>7.64</v>
       </c>
-      <c r="N48" s="50"/>
-      <c r="O48" s="48" t="n">
+      <c r="N53" s="52"/>
+      <c r="O53" s="50" t="n">
         <v>9.96</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="70"/>
-      <c r="B49" s="72" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="71"/>
+      <c r="B54" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48" t="n">
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50" t="n">
         <v>8.04</v>
       </c>
-      <c r="M49" s="48" t="n">
+      <c r="M54" s="50" t="n">
         <v>7.48</v>
       </c>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="70"/>
-      <c r="B50" s="72" t="s">
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="71"/>
+      <c r="B55" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="74" t="n">
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="75" t="n">
         <v>7.67</v>
       </c>
-      <c r="M50" s="74" t="n">
+      <c r="M55" s="75" t="n">
         <v>7.14</v>
       </c>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-    </row>
-    <row r="51" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="76" t="s">
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+    </row>
+    <row r="56" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B56" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="M51" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80" t="s">
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="80" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="76"/>
-      <c r="B52" s="0" t="s">
+      <c r="M56" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="77"/>
+      <c r="B57" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="M52" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83" t="s">
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="83" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="76"/>
-      <c r="B53" s="0" t="s">
+      <c r="M57" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="77"/>
+      <c r="B58" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="M53" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83" t="s">
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="83" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" s="89" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="76"/>
-      <c r="B54" s="84" t="s">
+      <c r="M58" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" s="90" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="77"/>
+      <c r="B59" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="86" t="n">
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="86"/>
+      <c r="K59" s="86"/>
+      <c r="L59" s="87" t="n">
         <v>6.51</v>
       </c>
-      <c r="M54" s="87" t="n">
+      <c r="M59" s="88" t="n">
         <v>6.27</v>
       </c>
-      <c r="N54" s="88"/>
-      <c r="O54" s="87" t="n">
+      <c r="N59" s="89"/>
+      <c r="O59" s="88" t="n">
         <v>7.71</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="70" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78" t="n">
+      <c r="B60" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79" t="n">
         <v>96.4</v>
       </c>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78" t="n">
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79" t="n">
         <v>83.6</v>
       </c>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="70"/>
-      <c r="B56" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="90" t="n">
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="71"/>
+      <c r="B61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="91" t="n">
         <v>97.2</v>
       </c>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81" t="n">
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82" t="n">
         <v>84.4</v>
       </c>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="70"/>
-      <c r="B57" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85" t="n">
+      <c r="L61" s="84"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="84"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="71"/>
+      <c r="B62" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86" t="n">
         <v>95.6</v>
       </c>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="87" t="n">
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="88" t="n">
         <v>85.1</v>
       </c>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-    </row>
-    <row r="58" s="98" customFormat="true" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="91" t="s">
+      <c r="L62" s="89"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
+    </row>
+    <row r="63" s="99" customFormat="true" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="94" t="n">
+      <c r="B63" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="94"/>
+      <c r="D63" s="95" t="n">
         <v>49.6</v>
       </c>
-      <c r="E58" s="95" t="n">
+      <c r="E63" s="96" t="n">
         <v>89.4</v>
       </c>
-      <c r="F58" s="93"/>
-      <c r="G58" s="95" t="n">
+      <c r="F63" s="94"/>
+      <c r="G63" s="96" t="n">
         <v>88.2</v>
       </c>
-      <c r="H58" s="96" t="n">
+      <c r="H63" s="97" t="n">
         <v>93.9</v>
       </c>
-      <c r="I58" s="93"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97"/>
-    </row>
-    <row r="59" s="97" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="99" t="s">
+      <c r="I63" s="94"/>
+      <c r="J63" s="94"/>
+      <c r="K63" s="98"/>
+      <c r="L63" s="98"/>
+      <c r="M63" s="98"/>
+      <c r="N63" s="98"/>
+      <c r="O63" s="98"/>
+    </row>
+    <row r="64" s="98" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="93"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="93"/>
-      <c r="J59" s="93"/>
-      <c r="L59" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="M59" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="O59" s="101" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B64" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="94"/>
+      <c r="I64" s="94"/>
+      <c r="J64" s="94"/>
+      <c r="L64" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="M64" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="O64" s="102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:C1"/>
@@ -2929,13 +3267,13 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="A Convolutional Neural Network for Modelling Sentences"/>
@@ -2961,8 +3299,9 @@
     <hyperlink ref="B27" r:id="rId21" display="Elec2"/>
     <hyperlink ref="B28" r:id="rId22" display="RCV1-multi"/>
     <hyperlink ref="B29" r:id="rId23" display="RCV1-single"/>
-    <hyperlink ref="G35" r:id="rId24" display="Sentiment140"/>
-    <hyperlink ref="M35" r:id="rId25" display="Elec2"/>
+    <hyperlink ref="B31" r:id="rId24" display="AG’s News"/>
+    <hyperlink ref="G40" r:id="rId25" display="Sentiment140"/>
+    <hyperlink ref="M40" r:id="rId26" display="Elec2"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2981,18 +3320,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>146</v>
+      <c r="A1" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3004,4 +3343,251 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.6"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="94" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="103" width="11.4696356275304"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="94" width="75.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="98" width="65.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="98" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="105"/>
+    </row>
+    <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="94" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="94" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" s="109" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="94" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+    </row>
+    <row r="8" s="109" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="107"/>
+      <c r="B8" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+    </row>
+    <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="107"/>
+    </row>
+    <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="111"/>
+      <c r="B11" s="110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="111"/>
+      <c r="B12" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="94" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="111"/>
+      <c r="B14" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="111"/>
+      <c r="B15" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="111"/>
+      <c r="B17" s="110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="111"/>
+      <c r="B18" s="110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="94" t="n">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="111"/>
+      <c r="B20" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="111"/>
+      <c r="B21" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://github.com/zhangxiangxiao/Crepe"/>
+    <hyperlink ref="C4" r:id="rId2" display="Xiang Zhang, et al. Character-level convolutional networks for text classification. NIPS 2015"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/dataset/公开数据集.xlsx
+++ b/dataset/公开数据集.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'1 MR'!$C$25</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'1 MR'!$C$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0" vbProcedure="false">'1 MR'!$C$25</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="182">
   <si>
     <t>目录</t>
   </si>
@@ -62,11 +63,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Nal Kalchbrenner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Nal Kalchbrenner，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -384,11 +395,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>movie reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>movie reviews，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -418,11 +439,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>electronics product reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>electronics product reviews，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -494,58 +525,7 @@
     <t>AG is a collection of more than 1 million news articles</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>模型</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>PK</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>大汇总（</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>State of the Art</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>模型PK大汇总（State of the Art）</t>
   </si>
   <si>
     <t>统计的是正确率</t>
@@ -561,11 +541,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Kalchbrenner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Kalchbrenner，</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -604,11 +594,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Paragraph-Vec(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Paragraph-Vec(数据来自</t>
+      <t>数据来自</t>
     </r>
     <r>
       <rPr>
@@ -742,92 +742,7 @@
     <t>字典数</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>18764</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>16448</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>个词出现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>GooggleNews</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>模型中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,2316个个未出现</t>
-    </r>
+    <t>18764个,有16448个词出现GooggleNews模型中,2316个个未出现</t>
   </si>
   <si>
     <t>State Of the Art</t>
@@ -865,47 +780,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>最长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>= 191 ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>最短</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>= 3 ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>平均</t>
+      <t>最长= 191 ,最短= 3 ,平均</t>
     </r>
     <r>
       <rPr>
@@ -927,47 +802,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>最长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>= 148 ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>最短</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>= 6 ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>平均</t>
+      <t>最长= 148 ,最短= 6 ,平均</t>
     </r>
     <r>
       <rPr>
@@ -980,6 +815,12 @@
       <t>= 33</t>
     </r>
   </si>
+  <si>
+    <t>error rate</t>
+  </si>
+  <si>
+    <t>ngrams TFIDF</t>
+  </si>
 </sst>
 </file>
 
@@ -988,7 +829,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1060,13 +901,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1126,12 +960,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1334,7 +1162,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1379,7 +1207,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1404,6 +1232,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1451,10 +1283,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1463,16 +1291,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1483,23 +1307,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1531,7 +1355,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1543,7 +1367,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1571,10 +1395,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1587,15 +1407,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1603,11 +1423,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1627,7 +1447,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1643,7 +1463,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1663,7 +1483,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1711,11 +1531,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1727,7 +1547,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1743,11 +1563,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1807,7 +1627,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1829,6 +1649,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1919,15 +1743,15 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8016194331984"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,26 +1891,25 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="8.91093117408907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="106.692307692308"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="107.655870445344"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2297,7 +2120,7 @@
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>9</v>
       </c>
@@ -2351,6 +2174,17 @@
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+    </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
       <c r="C15" s="0"/>
@@ -2412,173 +2246,173 @@
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="18" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="n">
+      <c r="A18" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="20" t="n">
+      <c r="D19" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="20" t="n">
+      <c r="F19" s="21" t="n">
         <v>11855</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="20" t="n">
+      <c r="H19" s="21" t="n">
         <v>8544</v>
       </c>
       <c r="I19" s="0"/>
-      <c r="J19" s="20" t="n">
+      <c r="J19" s="21" t="n">
         <v>1101</v>
       </c>
-      <c r="K19" s="20" t="n">
+      <c r="K19" s="21" t="n">
         <v>2210</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="21" t="s">
         <v>77</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="21" t="n">
         <v>2</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="20" t="n">
+      <c r="F20" s="21" t="n">
         <v>9613</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="20" t="n">
+      <c r="H20" s="21" t="n">
         <v>6920</v>
       </c>
       <c r="I20" s="0"/>
-      <c r="J20" s="20" t="n">
+      <c r="J20" s="21" t="n">
         <v>872</v>
       </c>
-      <c r="K20" s="20" t="n">
+      <c r="K20" s="21" t="n">
         <v>1821</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="20"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="n">
+      <c r="A21" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="20" t="n">
+      <c r="D21" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="20" t="n">
+      <c r="F21" s="21" t="n">
         <v>5952</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="20" t="n">
+      <c r="H21" s="21" t="n">
         <v>5452</v>
       </c>
       <c r="I21" s="0"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20" t="n">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21" t="n">
         <v>500</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="20" t="n">
+      <c r="D22" s="21" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="14" t="s">
@@ -2586,16 +2420,16 @@
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="21" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="0"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20" t="n">
+      <c r="J22" s="21"/>
+      <c r="K22" s="21" t="n">
         <v>400</v>
       </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20" t="n">
+      <c r="L22" s="21"/>
+      <c r="M22" s="21" t="n">
         <v>76643</v>
       </c>
       <c r="N22" s="0" t="s">
@@ -2606,10 +2440,10 @@
       <c r="A23" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="7" t="n">
@@ -2618,10 +2452,10 @@
       <c r="E23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="22" t="s">
         <v>96</v>
       </c>
       <c r="H23" s="0"/>
@@ -2637,10 +2471,10 @@
       <c r="A24" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>99</v>
       </c>
       <c r="D24" s="7" t="n">
@@ -2666,10 +2500,10 @@
       <c r="A25" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D25" s="7" t="n">
@@ -2692,13 +2526,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="n">
+      <c r="A26" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="7" t="n">
@@ -2719,18 +2553,18 @@
       <c r="K26" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="25" t="s">
+      <c r="N26" s="26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="n">
+      <c r="A27" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="7" t="n">
@@ -2757,10 +2591,10 @@
       <c r="B28" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="22" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="14" t="s">
@@ -2784,7 +2618,7 @@
       <c r="B29" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="32" t="s">
         <v>116</v>
       </c>
       <c r="D29" s="7" t="n">
@@ -2811,7 +2645,7 @@
       <c r="B30" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D30" s="0"/>
@@ -2826,18 +2660,18 @@
       <c r="K30" s="7" t="n">
         <v>2280</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="26" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="n">
+      <c r="A31" s="19" t="n">
         <v>12</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D31" s="7" t="n">
@@ -2963,759 +2797,759 @@
   </sheetPr>
   <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="14.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="7.51417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="7" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="16.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="15.9311740890688"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="7.81376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.8380566801619"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.7408906882591"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="36" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="35" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
-    <row r="2" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+    <row r="2" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
-    <row r="3" s="47" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
+    <row r="3" s="46" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="AMJ3" s="48"/>
+      <c r="AMJ3" s="47"/>
     </row>
-    <row r="4" s="54" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
+    <row r="4" s="53" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="n">
+      <c r="C4" s="50"/>
+      <c r="D4" s="51" t="n">
         <v>48.5</v>
       </c>
-      <c r="E4" s="52" t="n">
+      <c r="E4" s="51" t="n">
         <v>86.8</v>
       </c>
-      <c r="F4" s="52" t="n">
+      <c r="F4" s="51" t="n">
         <v>93</v>
       </c>
-      <c r="G4" s="52" t="n">
+      <c r="G4" s="51" t="n">
         <v>87.4</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57" t="n">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56" t="n">
         <v>37.4</v>
       </c>
-      <c r="E5" s="57" t="n">
+      <c r="E5" s="56" t="n">
         <v>77.1</v>
       </c>
-      <c r="F5" s="57" t="n">
+      <c r="F5" s="56" t="n">
         <v>84.4</v>
       </c>
-      <c r="G5" s="57" t="n">
+      <c r="G5" s="56" t="n">
         <v>78.8</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49"/>
-      <c r="B6" s="55" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57" t="n">
+      <c r="C6" s="55"/>
+      <c r="D6" s="56" t="n">
         <v>42.4</v>
       </c>
-      <c r="E6" s="57" t="n">
+      <c r="E6" s="56" t="n">
         <v>80.5</v>
       </c>
-      <c r="F6" s="57" t="n">
+      <c r="F6" s="56" t="n">
         <v>88.2</v>
       </c>
-      <c r="G6" s="57" t="n">
+      <c r="G6" s="56" t="n">
         <v>80.9</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
     </row>
-    <row r="7" s="54" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
+    <row r="7" s="53" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="61" t="n">
+      <c r="C7" s="59" t="n">
         <v>76.1</v>
       </c>
-      <c r="D7" s="61" t="n">
+      <c r="D7" s="59" t="n">
         <v>45</v>
       </c>
-      <c r="E7" s="61" t="n">
+      <c r="E7" s="59" t="n">
         <v>82.7</v>
       </c>
-      <c r="F7" s="51" t="n">
+      <c r="F7" s="50" t="n">
         <v>91.2</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="n">
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="n">
         <v>89.6</v>
       </c>
-      <c r="I7" s="51" t="n">
+      <c r="I7" s="50" t="n">
         <v>79.8</v>
       </c>
-      <c r="J7" s="51" t="n">
+      <c r="J7" s="50" t="n">
         <v>83.4</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="57" t="n">
+      <c r="C8" s="56" t="n">
         <v>81</v>
       </c>
-      <c r="D8" s="57" t="n">
+      <c r="D8" s="56" t="n">
         <v>45.5</v>
       </c>
-      <c r="E8" s="57" t="n">
+      <c r="E8" s="56" t="n">
         <v>86.8</v>
       </c>
-      <c r="F8" s="56" t="n">
+      <c r="F8" s="55" t="n">
         <v>92.8</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56" t="n">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55" t="n">
         <v>93</v>
       </c>
-      <c r="I8" s="56" t="n">
+      <c r="I8" s="55" t="n">
         <v>84.7</v>
       </c>
-      <c r="J8" s="63" t="n">
+      <c r="J8" s="61" t="n">
         <v>89.6</v>
       </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="64" t="n">
+      <c r="C9" s="62" t="n">
         <v>81.5</v>
       </c>
-      <c r="D9" s="57" t="n">
+      <c r="D9" s="56" t="n">
         <v>48</v>
       </c>
-      <c r="E9" s="57" t="n">
+      <c r="E9" s="56" t="n">
         <v>87.2</v>
       </c>
-      <c r="F9" s="56" t="n">
+      <c r="F9" s="55" t="n">
         <v>93.6</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56" t="n">
+      <c r="G9" s="55"/>
+      <c r="H9" s="55" t="n">
         <v>93.4</v>
       </c>
-      <c r="I9" s="56" t="n">
+      <c r="I9" s="55" t="n">
         <v>84.3</v>
       </c>
-      <c r="J9" s="56" t="n">
+      <c r="J9" s="55" t="n">
         <v>89.5</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59"/>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="57" t="n">
+      <c r="C10" s="56" t="n">
         <v>81.1</v>
       </c>
-      <c r="D10" s="56" t="n">
+      <c r="D10" s="55" t="n">
         <v>47.4</v>
       </c>
-      <c r="E10" s="65" t="n">
+      <c r="E10" s="63" t="n">
         <v>88.1</v>
       </c>
-      <c r="F10" s="56" t="n">
+      <c r="F10" s="55" t="n">
         <v>92.2</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56" t="n">
+      <c r="G10" s="55"/>
+      <c r="H10" s="55" t="n">
         <v>93.2</v>
       </c>
-      <c r="I10" s="63" t="n">
+      <c r="I10" s="61" t="n">
         <v>85</v>
       </c>
-      <c r="J10" s="56" t="n">
+      <c r="J10" s="55" t="n">
         <v>89.4</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
     </row>
-    <row r="11" s="54" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
+    <row r="11" s="53" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="68" t="n">
+      <c r="C11" s="50"/>
+      <c r="D11" s="66" t="n">
         <v>48.7</v>
       </c>
-      <c r="E11" s="51" t="n">
+      <c r="E11" s="50" t="n">
         <v>87.8</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="AMJ11" s="69"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="AMJ11" s="67"/>
     </row>
-    <row r="12" s="74" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="70" t="s">
+    <row r="12" s="72" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73" t="n">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71" t="n">
         <v>95</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="AMJ12" s="75"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="AMJ12" s="73"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="76" t="n">
+      <c r="C13" s="74" t="n">
         <v>79</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="76" t="n">
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="74" t="n">
         <v>93.6</v>
       </c>
-      <c r="I13" s="76" t="n">
+      <c r="I13" s="74" t="n">
         <v>80</v>
       </c>
-      <c r="J13" s="76" t="n">
+      <c r="J13" s="74" t="n">
         <v>86.3</v>
       </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="AMJ13" s="75"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="AMJ13" s="73"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="76" t="n">
+      <c r="C14" s="74" t="n">
         <v>79.1</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="63" t="n">
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="61" t="n">
         <v>93.6</v>
       </c>
-      <c r="I14" s="76" t="n">
+      <c r="I14" s="74" t="n">
         <v>81.9</v>
       </c>
-      <c r="J14" s="76" t="n">
+      <c r="J14" s="74" t="n">
         <v>86.3</v>
       </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="AMJ14" s="75"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="AMJ14" s="73"/>
     </row>
-    <row r="15" s="54" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="78" t="s">
+    <row r="15" s="53" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51" t="n">
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50" t="n">
         <v>8.66</v>
       </c>
-      <c r="M15" s="51" t="n">
+      <c r="M15" s="50" t="n">
         <v>8.39</v>
       </c>
-      <c r="O15" s="51" t="n">
+      <c r="O15" s="50" t="n">
         <v>9.33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="78"/>
-      <c r="B16" s="80" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56" t="n">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55" t="n">
         <v>8.39</v>
       </c>
-      <c r="M16" s="56" t="n">
+      <c r="M16" s="55" t="n">
         <v>7.64</v>
       </c>
-      <c r="N16" s="58"/>
-      <c r="O16" s="56" t="n">
+      <c r="N16" s="57"/>
+      <c r="O16" s="55" t="n">
         <v>9.96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="78"/>
-      <c r="B17" s="80" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56" t="n">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55" t="n">
         <v>8.04</v>
       </c>
-      <c r="M17" s="56" t="n">
+      <c r="M17" s="55" t="n">
         <v>7.48</v>
       </c>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="78"/>
-      <c r="B18" s="80" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="82" t="n">
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="80" t="n">
         <v>7.67</v>
       </c>
-      <c r="M18" s="82" t="n">
+      <c r="M18" s="80" t="n">
         <v>7.14</v>
       </c>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
     </row>
-    <row r="19" s="54" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="84" t="s">
+    <row r="19" s="53" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="M19" s="87" t="s">
+      <c r="M19" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88" t="s">
+      <c r="N19" s="86"/>
+      <c r="O19" s="86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="84"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90" t="s">
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="M20" s="90" t="s">
+      <c r="M20" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91" t="s">
+      <c r="N20" s="89"/>
+      <c r="O20" s="89" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="84"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90" t="s">
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="M21" s="90" t="s">
+      <c r="M21" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91" t="s">
+      <c r="N21" s="89"/>
+      <c r="O21" s="89" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" s="97" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="84"/>
-      <c r="B22" s="92" t="s">
+    <row r="22" s="95" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="82"/>
+      <c r="B22" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="94" t="n">
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92" t="n">
         <v>6.51</v>
       </c>
-      <c r="M22" s="95" t="n">
+      <c r="M22" s="93" t="n">
         <v>6.27</v>
       </c>
-      <c r="N22" s="96"/>
-      <c r="O22" s="95" t="n">
+      <c r="N22" s="94"/>
+      <c r="O22" s="93" t="n">
         <v>7.71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="76" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86" t="n">
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84" t="n">
         <v>96.4</v>
       </c>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86" t="n">
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84" t="n">
         <v>83.6</v>
       </c>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="78"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="98" t="n">
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="96" t="n">
         <v>97.2</v>
       </c>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89" t="n">
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87" t="n">
         <v>84.4</v>
       </c>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="78"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93" t="n">
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91" t="n">
         <v>95.6</v>
       </c>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="95" t="n">
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="93" t="n">
         <v>85.1</v>
       </c>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
     </row>
-    <row r="26" s="105" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="99" t="s">
+    <row r="26" s="103" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="102" t="n">
+      <c r="C26" s="99"/>
+      <c r="D26" s="100" t="n">
         <v>49.6</v>
       </c>
-      <c r="E26" s="103" t="n">
+      <c r="E26" s="101" t="n">
         <v>89.4</v>
       </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="103" t="n">
+      <c r="F26" s="99"/>
+      <c r="G26" s="101" t="n">
         <v>88.2</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>93.9</v>
       </c>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
     </row>
-    <row r="27" s="104" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="106" t="s">
+    <row r="27" s="102" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="L27" s="108" t="s">
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="L27" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="M27" s="108" t="s">
+      <c r="M27" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="O27" s="108" t="s">
+      <c r="O27" s="106" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3751,7 +3585,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3761,7 +3595,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3783,7 +3617,7 @@
   </sheetPr>
   <dimension ref="1:35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3791,11 +3625,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="109" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="110" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="111" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="112" width="80.6599190283401"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="112" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="107" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="108" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="109" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="110" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="110" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7922,11 +7756,11 @@
       <c r="A5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="114"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -8952,11 +8786,11 @@
       <c r="A6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="114"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -9978,31 +9812,31 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="116" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="115" t="s">
+    <row r="7" s="114" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="114" t="n">
+      <c r="C7" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
+      <c r="D7" s="112"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="115"/>
-      <c r="B8" s="113" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="114"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -10011,10 +9845,10 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
       <c r="Q8" s="0"/>
       <c r="R8" s="0"/>
       <c r="S8" s="0"/>
@@ -11025,7 +10859,7 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="115"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="0"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -12051,16 +11885,16 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -13083,12 +12917,12 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="115"/>
-      <c r="B11" s="113" t="s">
+      <c r="A11" s="113"/>
+      <c r="B11" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -14111,14 +13945,14 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="115"/>
-      <c r="B12" s="113" t="s">
+      <c r="A12" s="113"/>
+      <c r="B12" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -15141,16 +14975,16 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="117"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -16173,12 +16007,12 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="115"/>
-      <c r="B14" s="113" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -17201,12 +17035,12 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="115"/>
-      <c r="B15" s="113" t="s">
+      <c r="A15" s="113"/>
+      <c r="B15" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -18229,16 +18063,16 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="117"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -19261,12 +19095,12 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="115"/>
-      <c r="B17" s="113" t="s">
+      <c r="A17" s="113"/>
+      <c r="B17" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -20289,12 +20123,12 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="115"/>
-      <c r="B18" s="113" t="s">
+      <c r="A18" s="113"/>
+      <c r="B18" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -21317,14 +21151,14 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -22347,12 +22181,12 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="115"/>
-      <c r="B20" s="113" t="s">
+      <c r="A20" s="113"/>
+      <c r="B20" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -23375,12 +23209,12 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="115"/>
-      <c r="B21" s="113" t="s">
+      <c r="A21" s="113"/>
+      <c r="B21" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -24406,9 +24240,9 @@
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -25432,9 +25266,9 @@
     </row>
     <row r="23" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
@@ -26456,13 +26290,1039 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+      <c r="AX24" s="0"/>
+      <c r="AY24" s="0"/>
+      <c r="AZ24" s="0"/>
+      <c r="BA24" s="0"/>
+      <c r="BB24" s="0"/>
+      <c r="BC24" s="0"/>
+      <c r="BD24" s="0"/>
+      <c r="BE24" s="0"/>
+      <c r="BF24" s="0"/>
+      <c r="BG24" s="0"/>
+      <c r="BH24" s="0"/>
+      <c r="BI24" s="0"/>
+      <c r="BJ24" s="0"/>
+      <c r="BK24" s="0"/>
+      <c r="BL24" s="0"/>
+      <c r="BM24" s="0"/>
+      <c r="BN24" s="0"/>
+      <c r="BO24" s="0"/>
+      <c r="BP24" s="0"/>
+      <c r="BQ24" s="0"/>
+      <c r="BR24" s="0"/>
+      <c r="BS24" s="0"/>
+      <c r="BT24" s="0"/>
+      <c r="BU24" s="0"/>
+      <c r="BV24" s="0"/>
+      <c r="BW24" s="0"/>
+      <c r="BX24" s="0"/>
+      <c r="BY24" s="0"/>
+      <c r="BZ24" s="0"/>
+      <c r="CA24" s="0"/>
+      <c r="CB24" s="0"/>
+      <c r="CC24" s="0"/>
+      <c r="CD24" s="0"/>
+      <c r="CE24" s="0"/>
+      <c r="CF24" s="0"/>
+      <c r="CG24" s="0"/>
+      <c r="CH24" s="0"/>
+      <c r="CI24" s="0"/>
+      <c r="CJ24" s="0"/>
+      <c r="CK24" s="0"/>
+      <c r="CL24" s="0"/>
+      <c r="CM24" s="0"/>
+      <c r="CN24" s="0"/>
+      <c r="CO24" s="0"/>
+      <c r="CP24" s="0"/>
+      <c r="CQ24" s="0"/>
+      <c r="CR24" s="0"/>
+      <c r="CS24" s="0"/>
+      <c r="CT24" s="0"/>
+      <c r="CU24" s="0"/>
+      <c r="CV24" s="0"/>
+      <c r="CW24" s="0"/>
+      <c r="CX24" s="0"/>
+      <c r="CY24" s="0"/>
+      <c r="CZ24" s="0"/>
+      <c r="DA24" s="0"/>
+      <c r="DB24" s="0"/>
+      <c r="DC24" s="0"/>
+      <c r="DD24" s="0"/>
+      <c r="DE24" s="0"/>
+      <c r="DF24" s="0"/>
+      <c r="DG24" s="0"/>
+      <c r="DH24" s="0"/>
+      <c r="DI24" s="0"/>
+      <c r="DJ24" s="0"/>
+      <c r="DK24" s="0"/>
+      <c r="DL24" s="0"/>
+      <c r="DM24" s="0"/>
+      <c r="DN24" s="0"/>
+      <c r="DO24" s="0"/>
+      <c r="DP24" s="0"/>
+      <c r="DQ24" s="0"/>
+      <c r="DR24" s="0"/>
+      <c r="DS24" s="0"/>
+      <c r="DT24" s="0"/>
+      <c r="DU24" s="0"/>
+      <c r="DV24" s="0"/>
+      <c r="DW24" s="0"/>
+      <c r="DX24" s="0"/>
+      <c r="DY24" s="0"/>
+      <c r="DZ24" s="0"/>
+      <c r="EA24" s="0"/>
+      <c r="EB24" s="0"/>
+      <c r="EC24" s="0"/>
+      <c r="ED24" s="0"/>
+      <c r="EE24" s="0"/>
+      <c r="EF24" s="0"/>
+      <c r="EG24" s="0"/>
+      <c r="EH24" s="0"/>
+      <c r="EI24" s="0"/>
+      <c r="EJ24" s="0"/>
+      <c r="EK24" s="0"/>
+      <c r="EL24" s="0"/>
+      <c r="EM24" s="0"/>
+      <c r="EN24" s="0"/>
+      <c r="EO24" s="0"/>
+      <c r="EP24" s="0"/>
+      <c r="EQ24" s="0"/>
+      <c r="ER24" s="0"/>
+      <c r="ES24" s="0"/>
+      <c r="ET24" s="0"/>
+      <c r="EU24" s="0"/>
+      <c r="EV24" s="0"/>
+      <c r="EW24" s="0"/>
+      <c r="EX24" s="0"/>
+      <c r="EY24" s="0"/>
+      <c r="EZ24" s="0"/>
+      <c r="FA24" s="0"/>
+      <c r="FB24" s="0"/>
+      <c r="FC24" s="0"/>
+      <c r="FD24" s="0"/>
+      <c r="FE24" s="0"/>
+      <c r="FF24" s="0"/>
+      <c r="FG24" s="0"/>
+      <c r="FH24" s="0"/>
+      <c r="FI24" s="0"/>
+      <c r="FJ24" s="0"/>
+      <c r="FK24" s="0"/>
+      <c r="FL24" s="0"/>
+      <c r="FM24" s="0"/>
+      <c r="FN24" s="0"/>
+      <c r="FO24" s="0"/>
+      <c r="FP24" s="0"/>
+      <c r="FQ24" s="0"/>
+      <c r="FR24" s="0"/>
+      <c r="FS24" s="0"/>
+      <c r="FT24" s="0"/>
+      <c r="FU24" s="0"/>
+      <c r="FV24" s="0"/>
+      <c r="FW24" s="0"/>
+      <c r="FX24" s="0"/>
+      <c r="FY24" s="0"/>
+      <c r="FZ24" s="0"/>
+      <c r="GA24" s="0"/>
+      <c r="GB24" s="0"/>
+      <c r="GC24" s="0"/>
+      <c r="GD24" s="0"/>
+      <c r="GE24" s="0"/>
+      <c r="GF24" s="0"/>
+      <c r="GG24" s="0"/>
+      <c r="GH24" s="0"/>
+      <c r="GI24" s="0"/>
+      <c r="GJ24" s="0"/>
+      <c r="GK24" s="0"/>
+      <c r="GL24" s="0"/>
+      <c r="GM24" s="0"/>
+      <c r="GN24" s="0"/>
+      <c r="GO24" s="0"/>
+      <c r="GP24" s="0"/>
+      <c r="GQ24" s="0"/>
+      <c r="GR24" s="0"/>
+      <c r="GS24" s="0"/>
+      <c r="GT24" s="0"/>
+      <c r="GU24" s="0"/>
+      <c r="GV24" s="0"/>
+      <c r="GW24" s="0"/>
+      <c r="GX24" s="0"/>
+      <c r="GY24" s="0"/>
+      <c r="GZ24" s="0"/>
+      <c r="HA24" s="0"/>
+      <c r="HB24" s="0"/>
+      <c r="HC24" s="0"/>
+      <c r="HD24" s="0"/>
+      <c r="HE24" s="0"/>
+      <c r="HF24" s="0"/>
+      <c r="HG24" s="0"/>
+      <c r="HH24" s="0"/>
+      <c r="HI24" s="0"/>
+      <c r="HJ24" s="0"/>
+      <c r="HK24" s="0"/>
+      <c r="HL24" s="0"/>
+      <c r="HM24" s="0"/>
+      <c r="HN24" s="0"/>
+      <c r="HO24" s="0"/>
+      <c r="HP24" s="0"/>
+      <c r="HQ24" s="0"/>
+      <c r="HR24" s="0"/>
+      <c r="HS24" s="0"/>
+      <c r="HT24" s="0"/>
+      <c r="HU24" s="0"/>
+      <c r="HV24" s="0"/>
+      <c r="HW24" s="0"/>
+      <c r="HX24" s="0"/>
+      <c r="HY24" s="0"/>
+      <c r="HZ24" s="0"/>
+      <c r="IA24" s="0"/>
+      <c r="IB24" s="0"/>
+      <c r="IC24" s="0"/>
+      <c r="ID24" s="0"/>
+      <c r="IE24" s="0"/>
+      <c r="IF24" s="0"/>
+      <c r="IG24" s="0"/>
+      <c r="IH24" s="0"/>
+      <c r="II24" s="0"/>
+      <c r="IJ24" s="0"/>
+      <c r="IK24" s="0"/>
+      <c r="IL24" s="0"/>
+      <c r="IM24" s="0"/>
+      <c r="IN24" s="0"/>
+      <c r="IO24" s="0"/>
+      <c r="IP24" s="0"/>
+      <c r="IQ24" s="0"/>
+      <c r="IR24" s="0"/>
+      <c r="IS24" s="0"/>
+      <c r="IT24" s="0"/>
+      <c r="IU24" s="0"/>
+      <c r="IV24" s="0"/>
+      <c r="IW24" s="0"/>
+      <c r="IX24" s="0"/>
+      <c r="IY24" s="0"/>
+      <c r="IZ24" s="0"/>
+      <c r="JA24" s="0"/>
+      <c r="JB24" s="0"/>
+      <c r="JC24" s="0"/>
+      <c r="JD24" s="0"/>
+      <c r="JE24" s="0"/>
+      <c r="JF24" s="0"/>
+      <c r="JG24" s="0"/>
+      <c r="JH24" s="0"/>
+      <c r="JI24" s="0"/>
+      <c r="JJ24" s="0"/>
+      <c r="JK24" s="0"/>
+      <c r="JL24" s="0"/>
+      <c r="JM24" s="0"/>
+      <c r="JN24" s="0"/>
+      <c r="JO24" s="0"/>
+      <c r="JP24" s="0"/>
+      <c r="JQ24" s="0"/>
+      <c r="JR24" s="0"/>
+      <c r="JS24" s="0"/>
+      <c r="JT24" s="0"/>
+      <c r="JU24" s="0"/>
+      <c r="JV24" s="0"/>
+      <c r="JW24" s="0"/>
+      <c r="JX24" s="0"/>
+      <c r="JY24" s="0"/>
+      <c r="JZ24" s="0"/>
+      <c r="KA24" s="0"/>
+      <c r="KB24" s="0"/>
+      <c r="KC24" s="0"/>
+      <c r="KD24" s="0"/>
+      <c r="KE24" s="0"/>
+      <c r="KF24" s="0"/>
+      <c r="KG24" s="0"/>
+      <c r="KH24" s="0"/>
+      <c r="KI24" s="0"/>
+      <c r="KJ24" s="0"/>
+      <c r="KK24" s="0"/>
+      <c r="KL24" s="0"/>
+      <c r="KM24" s="0"/>
+      <c r="KN24" s="0"/>
+      <c r="KO24" s="0"/>
+      <c r="KP24" s="0"/>
+      <c r="KQ24" s="0"/>
+      <c r="KR24" s="0"/>
+      <c r="KS24" s="0"/>
+      <c r="KT24" s="0"/>
+      <c r="KU24" s="0"/>
+      <c r="KV24" s="0"/>
+      <c r="KW24" s="0"/>
+      <c r="KX24" s="0"/>
+      <c r="KY24" s="0"/>
+      <c r="KZ24" s="0"/>
+      <c r="LA24" s="0"/>
+      <c r="LB24" s="0"/>
+      <c r="LC24" s="0"/>
+      <c r="LD24" s="0"/>
+      <c r="LE24" s="0"/>
+      <c r="LF24" s="0"/>
+      <c r="LG24" s="0"/>
+      <c r="LH24" s="0"/>
+      <c r="LI24" s="0"/>
+      <c r="LJ24" s="0"/>
+      <c r="LK24" s="0"/>
+      <c r="LL24" s="0"/>
+      <c r="LM24" s="0"/>
+      <c r="LN24" s="0"/>
+      <c r="LO24" s="0"/>
+      <c r="LP24" s="0"/>
+      <c r="LQ24" s="0"/>
+      <c r="LR24" s="0"/>
+      <c r="LS24" s="0"/>
+      <c r="LT24" s="0"/>
+      <c r="LU24" s="0"/>
+      <c r="LV24" s="0"/>
+      <c r="LW24" s="0"/>
+      <c r="LX24" s="0"/>
+      <c r="LY24" s="0"/>
+      <c r="LZ24" s="0"/>
+      <c r="MA24" s="0"/>
+      <c r="MB24" s="0"/>
+      <c r="MC24" s="0"/>
+      <c r="MD24" s="0"/>
+      <c r="ME24" s="0"/>
+      <c r="MF24" s="0"/>
+      <c r="MG24" s="0"/>
+      <c r="MH24" s="0"/>
+      <c r="MI24" s="0"/>
+      <c r="MJ24" s="0"/>
+      <c r="MK24" s="0"/>
+      <c r="ML24" s="0"/>
+      <c r="MM24" s="0"/>
+      <c r="MN24" s="0"/>
+      <c r="MO24" s="0"/>
+      <c r="MP24" s="0"/>
+      <c r="MQ24" s="0"/>
+      <c r="MR24" s="0"/>
+      <c r="MS24" s="0"/>
+      <c r="MT24" s="0"/>
+      <c r="MU24" s="0"/>
+      <c r="MV24" s="0"/>
+      <c r="MW24" s="0"/>
+      <c r="MX24" s="0"/>
+      <c r="MY24" s="0"/>
+      <c r="MZ24" s="0"/>
+      <c r="NA24" s="0"/>
+      <c r="NB24" s="0"/>
+      <c r="NC24" s="0"/>
+      <c r="ND24" s="0"/>
+      <c r="NE24" s="0"/>
+      <c r="NF24" s="0"/>
+      <c r="NG24" s="0"/>
+      <c r="NH24" s="0"/>
+      <c r="NI24" s="0"/>
+      <c r="NJ24" s="0"/>
+      <c r="NK24" s="0"/>
+      <c r="NL24" s="0"/>
+      <c r="NM24" s="0"/>
+      <c r="NN24" s="0"/>
+      <c r="NO24" s="0"/>
+      <c r="NP24" s="0"/>
+      <c r="NQ24" s="0"/>
+      <c r="NR24" s="0"/>
+      <c r="NS24" s="0"/>
+      <c r="NT24" s="0"/>
+      <c r="NU24" s="0"/>
+      <c r="NV24" s="0"/>
+      <c r="NW24" s="0"/>
+      <c r="NX24" s="0"/>
+      <c r="NY24" s="0"/>
+      <c r="NZ24" s="0"/>
+      <c r="OA24" s="0"/>
+      <c r="OB24" s="0"/>
+      <c r="OC24" s="0"/>
+      <c r="OD24" s="0"/>
+      <c r="OE24" s="0"/>
+      <c r="OF24" s="0"/>
+      <c r="OG24" s="0"/>
+      <c r="OH24" s="0"/>
+      <c r="OI24" s="0"/>
+      <c r="OJ24" s="0"/>
+      <c r="OK24" s="0"/>
+      <c r="OL24" s="0"/>
+      <c r="OM24" s="0"/>
+      <c r="ON24" s="0"/>
+      <c r="OO24" s="0"/>
+      <c r="OP24" s="0"/>
+      <c r="OQ24" s="0"/>
+      <c r="OR24" s="0"/>
+      <c r="OS24" s="0"/>
+      <c r="OT24" s="0"/>
+      <c r="OU24" s="0"/>
+      <c r="OV24" s="0"/>
+      <c r="OW24" s="0"/>
+      <c r="OX24" s="0"/>
+      <c r="OY24" s="0"/>
+      <c r="OZ24" s="0"/>
+      <c r="PA24" s="0"/>
+      <c r="PB24" s="0"/>
+      <c r="PC24" s="0"/>
+      <c r="PD24" s="0"/>
+      <c r="PE24" s="0"/>
+      <c r="PF24" s="0"/>
+      <c r="PG24" s="0"/>
+      <c r="PH24" s="0"/>
+      <c r="PI24" s="0"/>
+      <c r="PJ24" s="0"/>
+      <c r="PK24" s="0"/>
+      <c r="PL24" s="0"/>
+      <c r="PM24" s="0"/>
+      <c r="PN24" s="0"/>
+      <c r="PO24" s="0"/>
+      <c r="PP24" s="0"/>
+      <c r="PQ24" s="0"/>
+      <c r="PR24" s="0"/>
+      <c r="PS24" s="0"/>
+      <c r="PT24" s="0"/>
+      <c r="PU24" s="0"/>
+      <c r="PV24" s="0"/>
+      <c r="PW24" s="0"/>
+      <c r="PX24" s="0"/>
+      <c r="PY24" s="0"/>
+      <c r="PZ24" s="0"/>
+      <c r="QA24" s="0"/>
+      <c r="QB24" s="0"/>
+      <c r="QC24" s="0"/>
+      <c r="QD24" s="0"/>
+      <c r="QE24" s="0"/>
+      <c r="QF24" s="0"/>
+      <c r="QG24" s="0"/>
+      <c r="QH24" s="0"/>
+      <c r="QI24" s="0"/>
+      <c r="QJ24" s="0"/>
+      <c r="QK24" s="0"/>
+      <c r="QL24" s="0"/>
+      <c r="QM24" s="0"/>
+      <c r="QN24" s="0"/>
+      <c r="QO24" s="0"/>
+      <c r="QP24" s="0"/>
+      <c r="QQ24" s="0"/>
+      <c r="QR24" s="0"/>
+      <c r="QS24" s="0"/>
+      <c r="QT24" s="0"/>
+      <c r="QU24" s="0"/>
+      <c r="QV24" s="0"/>
+      <c r="QW24" s="0"/>
+      <c r="QX24" s="0"/>
+      <c r="QY24" s="0"/>
+      <c r="QZ24" s="0"/>
+      <c r="RA24" s="0"/>
+      <c r="RB24" s="0"/>
+      <c r="RC24" s="0"/>
+      <c r="RD24" s="0"/>
+      <c r="RE24" s="0"/>
+      <c r="RF24" s="0"/>
+      <c r="RG24" s="0"/>
+      <c r="RH24" s="0"/>
+      <c r="RI24" s="0"/>
+      <c r="RJ24" s="0"/>
+      <c r="RK24" s="0"/>
+      <c r="RL24" s="0"/>
+      <c r="RM24" s="0"/>
+      <c r="RN24" s="0"/>
+      <c r="RO24" s="0"/>
+      <c r="RP24" s="0"/>
+      <c r="RQ24" s="0"/>
+      <c r="RR24" s="0"/>
+      <c r="RS24" s="0"/>
+      <c r="RT24" s="0"/>
+      <c r="RU24" s="0"/>
+      <c r="RV24" s="0"/>
+      <c r="RW24" s="0"/>
+      <c r="RX24" s="0"/>
+      <c r="RY24" s="0"/>
+      <c r="RZ24" s="0"/>
+      <c r="SA24" s="0"/>
+      <c r="SB24" s="0"/>
+      <c r="SC24" s="0"/>
+      <c r="SD24" s="0"/>
+      <c r="SE24" s="0"/>
+      <c r="SF24" s="0"/>
+      <c r="SG24" s="0"/>
+      <c r="SH24" s="0"/>
+      <c r="SI24" s="0"/>
+      <c r="SJ24" s="0"/>
+      <c r="SK24" s="0"/>
+      <c r="SL24" s="0"/>
+      <c r="SM24" s="0"/>
+      <c r="SN24" s="0"/>
+      <c r="SO24" s="0"/>
+      <c r="SP24" s="0"/>
+      <c r="SQ24" s="0"/>
+      <c r="SR24" s="0"/>
+      <c r="SS24" s="0"/>
+      <c r="ST24" s="0"/>
+      <c r="SU24" s="0"/>
+      <c r="SV24" s="0"/>
+      <c r="SW24" s="0"/>
+      <c r="SX24" s="0"/>
+      <c r="SY24" s="0"/>
+      <c r="SZ24" s="0"/>
+      <c r="TA24" s="0"/>
+      <c r="TB24" s="0"/>
+      <c r="TC24" s="0"/>
+      <c r="TD24" s="0"/>
+      <c r="TE24" s="0"/>
+      <c r="TF24" s="0"/>
+      <c r="TG24" s="0"/>
+      <c r="TH24" s="0"/>
+      <c r="TI24" s="0"/>
+      <c r="TJ24" s="0"/>
+      <c r="TK24" s="0"/>
+      <c r="TL24" s="0"/>
+      <c r="TM24" s="0"/>
+      <c r="TN24" s="0"/>
+      <c r="TO24" s="0"/>
+      <c r="TP24" s="0"/>
+      <c r="TQ24" s="0"/>
+      <c r="TR24" s="0"/>
+      <c r="TS24" s="0"/>
+      <c r="TT24" s="0"/>
+      <c r="TU24" s="0"/>
+      <c r="TV24" s="0"/>
+      <c r="TW24" s="0"/>
+      <c r="TX24" s="0"/>
+      <c r="TY24" s="0"/>
+      <c r="TZ24" s="0"/>
+      <c r="UA24" s="0"/>
+      <c r="UB24" s="0"/>
+      <c r="UC24" s="0"/>
+      <c r="UD24" s="0"/>
+      <c r="UE24" s="0"/>
+      <c r="UF24" s="0"/>
+      <c r="UG24" s="0"/>
+      <c r="UH24" s="0"/>
+      <c r="UI24" s="0"/>
+      <c r="UJ24" s="0"/>
+      <c r="UK24" s="0"/>
+      <c r="UL24" s="0"/>
+      <c r="UM24" s="0"/>
+      <c r="UN24" s="0"/>
+      <c r="UO24" s="0"/>
+      <c r="UP24" s="0"/>
+      <c r="UQ24" s="0"/>
+      <c r="UR24" s="0"/>
+      <c r="US24" s="0"/>
+      <c r="UT24" s="0"/>
+      <c r="UU24" s="0"/>
+      <c r="UV24" s="0"/>
+      <c r="UW24" s="0"/>
+      <c r="UX24" s="0"/>
+      <c r="UY24" s="0"/>
+      <c r="UZ24" s="0"/>
+      <c r="VA24" s="0"/>
+      <c r="VB24" s="0"/>
+      <c r="VC24" s="0"/>
+      <c r="VD24" s="0"/>
+      <c r="VE24" s="0"/>
+      <c r="VF24" s="0"/>
+      <c r="VG24" s="0"/>
+      <c r="VH24" s="0"/>
+      <c r="VI24" s="0"/>
+      <c r="VJ24" s="0"/>
+      <c r="VK24" s="0"/>
+      <c r="VL24" s="0"/>
+      <c r="VM24" s="0"/>
+      <c r="VN24" s="0"/>
+      <c r="VO24" s="0"/>
+      <c r="VP24" s="0"/>
+      <c r="VQ24" s="0"/>
+      <c r="VR24" s="0"/>
+      <c r="VS24" s="0"/>
+      <c r="VT24" s="0"/>
+      <c r="VU24" s="0"/>
+      <c r="VV24" s="0"/>
+      <c r="VW24" s="0"/>
+      <c r="VX24" s="0"/>
+      <c r="VY24" s="0"/>
+      <c r="VZ24" s="0"/>
+      <c r="WA24" s="0"/>
+      <c r="WB24" s="0"/>
+      <c r="WC24" s="0"/>
+      <c r="WD24" s="0"/>
+      <c r="WE24" s="0"/>
+      <c r="WF24" s="0"/>
+      <c r="WG24" s="0"/>
+      <c r="WH24" s="0"/>
+      <c r="WI24" s="0"/>
+      <c r="WJ24" s="0"/>
+      <c r="WK24" s="0"/>
+      <c r="WL24" s="0"/>
+      <c r="WM24" s="0"/>
+      <c r="WN24" s="0"/>
+      <c r="WO24" s="0"/>
+      <c r="WP24" s="0"/>
+      <c r="WQ24" s="0"/>
+      <c r="WR24" s="0"/>
+      <c r="WS24" s="0"/>
+      <c r="WT24" s="0"/>
+      <c r="WU24" s="0"/>
+      <c r="WV24" s="0"/>
+      <c r="WW24" s="0"/>
+      <c r="WX24" s="0"/>
+      <c r="WY24" s="0"/>
+      <c r="WZ24" s="0"/>
+      <c r="XA24" s="0"/>
+      <c r="XB24" s="0"/>
+      <c r="XC24" s="0"/>
+      <c r="XD24" s="0"/>
+      <c r="XE24" s="0"/>
+      <c r="XF24" s="0"/>
+      <c r="XG24" s="0"/>
+      <c r="XH24" s="0"/>
+      <c r="XI24" s="0"/>
+      <c r="XJ24" s="0"/>
+      <c r="XK24" s="0"/>
+      <c r="XL24" s="0"/>
+      <c r="XM24" s="0"/>
+      <c r="XN24" s="0"/>
+      <c r="XO24" s="0"/>
+      <c r="XP24" s="0"/>
+      <c r="XQ24" s="0"/>
+      <c r="XR24" s="0"/>
+      <c r="XS24" s="0"/>
+      <c r="XT24" s="0"/>
+      <c r="XU24" s="0"/>
+      <c r="XV24" s="0"/>
+      <c r="XW24" s="0"/>
+      <c r="XX24" s="0"/>
+      <c r="XY24" s="0"/>
+      <c r="XZ24" s="0"/>
+      <c r="YA24" s="0"/>
+      <c r="YB24" s="0"/>
+      <c r="YC24" s="0"/>
+      <c r="YD24" s="0"/>
+      <c r="YE24" s="0"/>
+      <c r="YF24" s="0"/>
+      <c r="YG24" s="0"/>
+      <c r="YH24" s="0"/>
+      <c r="YI24" s="0"/>
+      <c r="YJ24" s="0"/>
+      <c r="YK24" s="0"/>
+      <c r="YL24" s="0"/>
+      <c r="YM24" s="0"/>
+      <c r="YN24" s="0"/>
+      <c r="YO24" s="0"/>
+      <c r="YP24" s="0"/>
+      <c r="YQ24" s="0"/>
+      <c r="YR24" s="0"/>
+      <c r="YS24" s="0"/>
+      <c r="YT24" s="0"/>
+      <c r="YU24" s="0"/>
+      <c r="YV24" s="0"/>
+      <c r="YW24" s="0"/>
+      <c r="YX24" s="0"/>
+      <c r="YY24" s="0"/>
+      <c r="YZ24" s="0"/>
+      <c r="ZA24" s="0"/>
+      <c r="ZB24" s="0"/>
+      <c r="ZC24" s="0"/>
+      <c r="ZD24" s="0"/>
+      <c r="ZE24" s="0"/>
+      <c r="ZF24" s="0"/>
+      <c r="ZG24" s="0"/>
+      <c r="ZH24" s="0"/>
+      <c r="ZI24" s="0"/>
+      <c r="ZJ24" s="0"/>
+      <c r="ZK24" s="0"/>
+      <c r="ZL24" s="0"/>
+      <c r="ZM24" s="0"/>
+      <c r="ZN24" s="0"/>
+      <c r="ZO24" s="0"/>
+      <c r="ZP24" s="0"/>
+      <c r="ZQ24" s="0"/>
+      <c r="ZR24" s="0"/>
+      <c r="ZS24" s="0"/>
+      <c r="ZT24" s="0"/>
+      <c r="ZU24" s="0"/>
+      <c r="ZV24" s="0"/>
+      <c r="ZW24" s="0"/>
+      <c r="ZX24" s="0"/>
+      <c r="ZY24" s="0"/>
+      <c r="ZZ24" s="0"/>
+      <c r="AAA24" s="0"/>
+      <c r="AAB24" s="0"/>
+      <c r="AAC24" s="0"/>
+      <c r="AAD24" s="0"/>
+      <c r="AAE24" s="0"/>
+      <c r="AAF24" s="0"/>
+      <c r="AAG24" s="0"/>
+      <c r="AAH24" s="0"/>
+      <c r="AAI24" s="0"/>
+      <c r="AAJ24" s="0"/>
+      <c r="AAK24" s="0"/>
+      <c r="AAL24" s="0"/>
+      <c r="AAM24" s="0"/>
+      <c r="AAN24" s="0"/>
+      <c r="AAO24" s="0"/>
+      <c r="AAP24" s="0"/>
+      <c r="AAQ24" s="0"/>
+      <c r="AAR24" s="0"/>
+      <c r="AAS24" s="0"/>
+      <c r="AAT24" s="0"/>
+      <c r="AAU24" s="0"/>
+      <c r="AAV24" s="0"/>
+      <c r="AAW24" s="0"/>
+      <c r="AAX24" s="0"/>
+      <c r="AAY24" s="0"/>
+      <c r="AAZ24" s="0"/>
+      <c r="ABA24" s="0"/>
+      <c r="ABB24" s="0"/>
+      <c r="ABC24" s="0"/>
+      <c r="ABD24" s="0"/>
+      <c r="ABE24" s="0"/>
+      <c r="ABF24" s="0"/>
+      <c r="ABG24" s="0"/>
+      <c r="ABH24" s="0"/>
+      <c r="ABI24" s="0"/>
+      <c r="ABJ24" s="0"/>
+      <c r="ABK24" s="0"/>
+      <c r="ABL24" s="0"/>
+      <c r="ABM24" s="0"/>
+      <c r="ABN24" s="0"/>
+      <c r="ABO24" s="0"/>
+      <c r="ABP24" s="0"/>
+      <c r="ABQ24" s="0"/>
+      <c r="ABR24" s="0"/>
+      <c r="ABS24" s="0"/>
+      <c r="ABT24" s="0"/>
+      <c r="ABU24" s="0"/>
+      <c r="ABV24" s="0"/>
+      <c r="ABW24" s="0"/>
+      <c r="ABX24" s="0"/>
+      <c r="ABY24" s="0"/>
+      <c r="ABZ24" s="0"/>
+      <c r="ACA24" s="0"/>
+      <c r="ACB24" s="0"/>
+      <c r="ACC24" s="0"/>
+      <c r="ACD24" s="0"/>
+      <c r="ACE24" s="0"/>
+      <c r="ACF24" s="0"/>
+      <c r="ACG24" s="0"/>
+      <c r="ACH24" s="0"/>
+      <c r="ACI24" s="0"/>
+      <c r="ACJ24" s="0"/>
+      <c r="ACK24" s="0"/>
+      <c r="ACL24" s="0"/>
+      <c r="ACM24" s="0"/>
+      <c r="ACN24" s="0"/>
+      <c r="ACO24" s="0"/>
+      <c r="ACP24" s="0"/>
+      <c r="ACQ24" s="0"/>
+      <c r="ACR24" s="0"/>
+      <c r="ACS24" s="0"/>
+      <c r="ACT24" s="0"/>
+      <c r="ACU24" s="0"/>
+      <c r="ACV24" s="0"/>
+      <c r="ACW24" s="0"/>
+      <c r="ACX24" s="0"/>
+      <c r="ACY24" s="0"/>
+      <c r="ACZ24" s="0"/>
+      <c r="ADA24" s="0"/>
+      <c r="ADB24" s="0"/>
+      <c r="ADC24" s="0"/>
+      <c r="ADD24" s="0"/>
+      <c r="ADE24" s="0"/>
+      <c r="ADF24" s="0"/>
+      <c r="ADG24" s="0"/>
+      <c r="ADH24" s="0"/>
+      <c r="ADI24" s="0"/>
+      <c r="ADJ24" s="0"/>
+      <c r="ADK24" s="0"/>
+      <c r="ADL24" s="0"/>
+      <c r="ADM24" s="0"/>
+      <c r="ADN24" s="0"/>
+      <c r="ADO24" s="0"/>
+      <c r="ADP24" s="0"/>
+      <c r="ADQ24" s="0"/>
+      <c r="ADR24" s="0"/>
+      <c r="ADS24" s="0"/>
+      <c r="ADT24" s="0"/>
+      <c r="ADU24" s="0"/>
+      <c r="ADV24" s="0"/>
+      <c r="ADW24" s="0"/>
+      <c r="ADX24" s="0"/>
+      <c r="ADY24" s="0"/>
+      <c r="ADZ24" s="0"/>
+      <c r="AEA24" s="0"/>
+      <c r="AEB24" s="0"/>
+      <c r="AEC24" s="0"/>
+      <c r="AED24" s="0"/>
+      <c r="AEE24" s="0"/>
+      <c r="AEF24" s="0"/>
+      <c r="AEG24" s="0"/>
+      <c r="AEH24" s="0"/>
+      <c r="AEI24" s="0"/>
+      <c r="AEJ24" s="0"/>
+      <c r="AEK24" s="0"/>
+      <c r="AEL24" s="0"/>
+      <c r="AEM24" s="0"/>
+      <c r="AEN24" s="0"/>
+      <c r="AEO24" s="0"/>
+      <c r="AEP24" s="0"/>
+      <c r="AEQ24" s="0"/>
+      <c r="AER24" s="0"/>
+      <c r="AES24" s="0"/>
+      <c r="AET24" s="0"/>
+      <c r="AEU24" s="0"/>
+      <c r="AEV24" s="0"/>
+      <c r="AEW24" s="0"/>
+      <c r="AEX24" s="0"/>
+      <c r="AEY24" s="0"/>
+      <c r="AEZ24" s="0"/>
+      <c r="AFA24" s="0"/>
+      <c r="AFB24" s="0"/>
+      <c r="AFC24" s="0"/>
+      <c r="AFD24" s="0"/>
+      <c r="AFE24" s="0"/>
+      <c r="AFF24" s="0"/>
+      <c r="AFG24" s="0"/>
+      <c r="AFH24" s="0"/>
+      <c r="AFI24" s="0"/>
+      <c r="AFJ24" s="0"/>
+      <c r="AFK24" s="0"/>
+      <c r="AFL24" s="0"/>
+      <c r="AFM24" s="0"/>
+      <c r="AFN24" s="0"/>
+      <c r="AFO24" s="0"/>
+      <c r="AFP24" s="0"/>
+      <c r="AFQ24" s="0"/>
+      <c r="AFR24" s="0"/>
+      <c r="AFS24" s="0"/>
+      <c r="AFT24" s="0"/>
+      <c r="AFU24" s="0"/>
+      <c r="AFV24" s="0"/>
+      <c r="AFW24" s="0"/>
+      <c r="AFX24" s="0"/>
+      <c r="AFY24" s="0"/>
+      <c r="AFZ24" s="0"/>
+      <c r="AGA24" s="0"/>
+      <c r="AGB24" s="0"/>
+      <c r="AGC24" s="0"/>
+      <c r="AGD24" s="0"/>
+      <c r="AGE24" s="0"/>
+      <c r="AGF24" s="0"/>
+      <c r="AGG24" s="0"/>
+      <c r="AGH24" s="0"/>
+      <c r="AGI24" s="0"/>
+      <c r="AGJ24" s="0"/>
+      <c r="AGK24" s="0"/>
+      <c r="AGL24" s="0"/>
+      <c r="AGM24" s="0"/>
+      <c r="AGN24" s="0"/>
+      <c r="AGO24" s="0"/>
+      <c r="AGP24" s="0"/>
+      <c r="AGQ24" s="0"/>
+      <c r="AGR24" s="0"/>
+      <c r="AGS24" s="0"/>
+      <c r="AGT24" s="0"/>
+      <c r="AGU24" s="0"/>
+      <c r="AGV24" s="0"/>
+      <c r="AGW24" s="0"/>
+      <c r="AGX24" s="0"/>
+      <c r="AGY24" s="0"/>
+      <c r="AGZ24" s="0"/>
+      <c r="AHA24" s="0"/>
+      <c r="AHB24" s="0"/>
+      <c r="AHC24" s="0"/>
+      <c r="AHD24" s="0"/>
+      <c r="AHE24" s="0"/>
+      <c r="AHF24" s="0"/>
+      <c r="AHG24" s="0"/>
+      <c r="AHH24" s="0"/>
+      <c r="AHI24" s="0"/>
+      <c r="AHJ24" s="0"/>
+      <c r="AHK24" s="0"/>
+      <c r="AHL24" s="0"/>
+      <c r="AHM24" s="0"/>
+      <c r="AHN24" s="0"/>
+      <c r="AHO24" s="0"/>
+      <c r="AHP24" s="0"/>
+      <c r="AHQ24" s="0"/>
+      <c r="AHR24" s="0"/>
+      <c r="AHS24" s="0"/>
+      <c r="AHT24" s="0"/>
+      <c r="AHU24" s="0"/>
+      <c r="AHV24" s="0"/>
+      <c r="AHW24" s="0"/>
+      <c r="AHX24" s="0"/>
+      <c r="AHY24" s="0"/>
+      <c r="AHZ24" s="0"/>
+      <c r="AIA24" s="0"/>
+      <c r="AIB24" s="0"/>
+      <c r="AIC24" s="0"/>
+      <c r="AID24" s="0"/>
+      <c r="AIE24" s="0"/>
+      <c r="AIF24" s="0"/>
+      <c r="AIG24" s="0"/>
+      <c r="AIH24" s="0"/>
+      <c r="AII24" s="0"/>
+      <c r="AIJ24" s="0"/>
+      <c r="AIK24" s="0"/>
+      <c r="AIL24" s="0"/>
+      <c r="AIM24" s="0"/>
+      <c r="AIN24" s="0"/>
+      <c r="AIO24" s="0"/>
+      <c r="AIP24" s="0"/>
+      <c r="AIQ24" s="0"/>
+      <c r="AIR24" s="0"/>
+      <c r="AIS24" s="0"/>
+      <c r="AIT24" s="0"/>
+      <c r="AIU24" s="0"/>
+      <c r="AIV24" s="0"/>
+      <c r="AIW24" s="0"/>
+      <c r="AIX24" s="0"/>
+      <c r="AIY24" s="0"/>
+      <c r="AIZ24" s="0"/>
+      <c r="AJA24" s="0"/>
+      <c r="AJB24" s="0"/>
+      <c r="AJC24" s="0"/>
+      <c r="AJD24" s="0"/>
+      <c r="AJE24" s="0"/>
+      <c r="AJF24" s="0"/>
+      <c r="AJG24" s="0"/>
+      <c r="AJH24" s="0"/>
+      <c r="AJI24" s="0"/>
+      <c r="AJJ24" s="0"/>
+      <c r="AJK24" s="0"/>
+      <c r="AJL24" s="0"/>
+      <c r="AJM24" s="0"/>
+      <c r="AJN24" s="0"/>
+      <c r="AJO24" s="0"/>
+      <c r="AJP24" s="0"/>
+      <c r="AJQ24" s="0"/>
+      <c r="AJR24" s="0"/>
+      <c r="AJS24" s="0"/>
+      <c r="AJT24" s="0"/>
+      <c r="AJU24" s="0"/>
+      <c r="AJV24" s="0"/>
+      <c r="AJW24" s="0"/>
+      <c r="AJX24" s="0"/>
+      <c r="AJY24" s="0"/>
+      <c r="AJZ24" s="0"/>
+      <c r="AKA24" s="0"/>
+      <c r="AKB24" s="0"/>
+      <c r="AKC24" s="0"/>
+      <c r="AKD24" s="0"/>
+      <c r="AKE24" s="0"/>
+      <c r="AKF24" s="0"/>
+      <c r="AKG24" s="0"/>
+      <c r="AKH24" s="0"/>
+      <c r="AKI24" s="0"/>
+      <c r="AKJ24" s="0"/>
+      <c r="AKK24" s="0"/>
+      <c r="AKL24" s="0"/>
+      <c r="AKM24" s="0"/>
+      <c r="AKN24" s="0"/>
+      <c r="AKO24" s="0"/>
+      <c r="AKP24" s="0"/>
+      <c r="AKQ24" s="0"/>
+      <c r="AKR24" s="0"/>
+      <c r="AKS24" s="0"/>
+      <c r="AKT24" s="0"/>
+      <c r="AKU24" s="0"/>
+      <c r="AKV24" s="0"/>
+      <c r="AKW24" s="0"/>
+      <c r="AKX24" s="0"/>
+      <c r="AKY24" s="0"/>
+      <c r="AKZ24" s="0"/>
+      <c r="ALA24" s="0"/>
+      <c r="ALB24" s="0"/>
+      <c r="ALC24" s="0"/>
+      <c r="ALD24" s="0"/>
+      <c r="ALE24" s="0"/>
+      <c r="ALF24" s="0"/>
+      <c r="ALG24" s="0"/>
+      <c r="ALH24" s="0"/>
+      <c r="ALI24" s="0"/>
+      <c r="ALJ24" s="0"/>
+      <c r="ALK24" s="0"/>
+      <c r="ALL24" s="0"/>
+      <c r="ALM24" s="0"/>
+      <c r="ALN24" s="0"/>
+      <c r="ALO24" s="0"/>
+      <c r="ALP24" s="0"/>
+      <c r="ALQ24" s="0"/>
+      <c r="ALR24" s="0"/>
+      <c r="ALS24" s="0"/>
+      <c r="ALT24" s="0"/>
+      <c r="ALU24" s="0"/>
+      <c r="ALV24" s="0"/>
+      <c r="ALW24" s="0"/>
+      <c r="ALX24" s="0"/>
+      <c r="ALY24" s="0"/>
+      <c r="ALZ24" s="0"/>
+      <c r="AMA24" s="0"/>
+      <c r="AMB24" s="0"/>
+      <c r="AMC24" s="0"/>
+      <c r="AMD24" s="0"/>
+      <c r="AME24" s="0"/>
+      <c r="AMF24" s="0"/>
+      <c r="AMG24" s="0"/>
+      <c r="AMH24" s="0"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
+    </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -27484,15 +28344,15 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="116" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="119" t="s">
+    <row r="27" s="114" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="116" t="s">
+      <c r="B27" s="117"/>
+      <c r="C27" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="114" t="s">
         <v>171</v>
       </c>
     </row>
@@ -27501,10 +28361,10 @@
         <v>129</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="101" t="n">
+      <c r="C28" s="99" t="n">
         <v>76.1</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="102" t="s">
         <v>172</v>
       </c>
     </row>
@@ -27513,10 +28373,10 @@
         <v>130</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="101" t="n">
+      <c r="C29" s="99" t="n">
         <v>81</v>
       </c>
-      <c r="D29" s="104" t="s">
+      <c r="D29" s="102" t="s">
         <v>172</v>
       </c>
     </row>
@@ -27525,10 +28385,10 @@
         <v>131</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="101" t="n">
+      <c r="C30" s="99" t="n">
         <v>81.5</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="102" t="s">
         <v>172</v>
       </c>
     </row>
@@ -27537,10 +28397,10 @@
         <v>132</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="101" t="n">
+      <c r="C31" s="99" t="n">
         <v>81.1</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="102" t="s">
         <v>172</v>
       </c>
     </row>
@@ -27549,10 +28409,10 @@
         <v>138</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="101" t="n">
+      <c r="C32" s="99" t="n">
         <v>79</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="102" t="s">
         <v>137</v>
       </c>
     </row>
@@ -27561,24 +28421,24 @@
         <v>140</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="101" t="n">
+      <c r="C33" s="99" t="n">
         <v>79.1</v>
       </c>
-      <c r="D33" s="104" t="s">
+      <c r="D33" s="102" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="104"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="102"/>
     </row>
     <row r="35" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="104"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -27649,19 +28509,19 @@
   </sheetPr>
   <dimension ref="1:33"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="109" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="110" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="111" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="112" width="73.2712550607288"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="112" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="107" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="108" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="109" width="12.2348178137652"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="110" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="110" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27669,10 +28529,10 @@
         <v>52</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="120"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -28699,10 +29559,10 @@
         <v>157</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="101" t="n">
+      <c r="C2" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="101"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
@@ -30759,10 +31619,10 @@
         <v>62</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -31788,11 +32648,11 @@
       <c r="A5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="101" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="101"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -32818,11 +33678,11 @@
       <c r="A6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="101" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="101"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -33844,181 +34704,181 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="116" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="115" t="s">
+    <row r="7" s="114" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="101" t="n">
+      <c r="C7" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="115"/>
-      <c r="B8" s="113" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="101"/>
+      <c r="D8" s="99"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="115"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="122" t="n">
+      <c r="C10" s="120" t="n">
         <v>127600</v>
       </c>
-      <c r="D10" s="122"/>
+      <c r="D10" s="120"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="115"/>
-      <c r="B11" s="113" t="s">
+      <c r="A11" s="113"/>
+      <c r="B11" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="123"/>
+      <c r="D11" s="121"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="115"/>
-      <c r="B12" s="113" t="s">
+      <c r="A12" s="113"/>
+      <c r="B12" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="101" t="n">
+      <c r="C12" s="99" t="n">
         <v>61724</v>
       </c>
-      <c r="D12" s="101"/>
+      <c r="D12" s="99"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="101" t="n">
+      <c r="C13" s="99" t="n">
         <v>120000</v>
       </c>
-      <c r="D13" s="101"/>
+      <c r="D13" s="99"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="115"/>
-      <c r="B14" s="113" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="121"/>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="115"/>
-      <c r="B15" s="113" t="s">
+      <c r="A15" s="113"/>
+      <c r="B15" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="99"/>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="115"/>
-      <c r="B17" s="113" t="s">
+      <c r="A17" s="113"/>
+      <c r="B17" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="115"/>
-      <c r="B18" s="113" t="s">
+      <c r="A18" s="113"/>
+      <c r="B18" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
     </row>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="101" t="n">
+      <c r="C19" s="99" t="n">
         <v>7600</v>
       </c>
-      <c r="D19" s="101"/>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="115"/>
-      <c r="B20" s="113" t="s">
+      <c r="A20" s="113"/>
+      <c r="B20" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="123"/>
+      <c r="D20" s="121"/>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="115"/>
-      <c r="B21" s="113" t="s">
+      <c r="A21" s="113"/>
+      <c r="B21" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="22" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
@@ -34033,66 +34893,72 @@
       <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="119" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="116" t="s">
+      <c r="B26" s="117"/>
+      <c r="C26" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="114" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="119"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="122"/>
+      <c r="C27" s="121" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="D27" s="123" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="125"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="117"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="124"/>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="119"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="125"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="117"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="124"/>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="119"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="125"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="117"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="124"/>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="119"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="117"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="124"/>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="119"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="117"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="124"/>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="125"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -34140,6 +35006,7 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://github.com/zhangxiangxiao/Crepe"/>
     <hyperlink ref="C4" r:id="rId2" display="Xiang Zhang, et al. Character-level convolutional networks for text classification. NIPS 2015"/>
+    <hyperlink ref="D27" r:id="rId3" display="Xiang Zhang, et al. Character-level convolutional networks for text classification. NIPS 2015"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/dataset/公开数据集.xlsx
+++ b/dataset/公开数据集.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="190">
   <si>
     <t>目录</t>
   </si>
@@ -688,6 +688,30 @@
     <t>情感词库</t>
   </si>
   <si>
+    <t>WordNet </t>
+  </si>
+  <si>
+    <t>Google Knowledge Graph</t>
+  </si>
+  <si>
+    <t>知识库</t>
+  </si>
+  <si>
+    <t>Probase</t>
+  </si>
+  <si>
+    <t>ReVerb</t>
+  </si>
+  <si>
+    <t>ReVerb is a program that automatically identifies and extracts binary relationships from English sentences. ReVerb is designed for Web-scale information extraction, where the target relations cannot be specified in advance and speed is important.</t>
+  </si>
+  <si>
+    <t>YAGO</t>
+  </si>
+  <si>
+    <t>AGOis a huge semantic knowledge base, derived from GeoNamesWordNetand Wikipedia(10 Wikipediasin different languages)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -829,7 +853,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -952,6 +976,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1162,7 +1192,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1591,6 +1621,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1627,7 +1665,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3583,23 +3621,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.9028340080972"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="107" width="38.582995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
         <v>156</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="WordNet "/>
+    <hyperlink ref="A4" r:id="rId2" display="Google Knowledge Graph"/>
+    <hyperlink ref="A5" r:id="rId3" display="Probase"/>
+    <hyperlink ref="A6" r:id="rId4" display="ReVerb"/>
+    <hyperlink ref="A7" r:id="rId5" display="YAGO"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3625,11 +3709,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="107" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="108" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="109" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="110" width="81.4089068825911"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="110" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="109" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="110" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="111" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="112" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="112" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4664,7 +4748,7 @@
     </row>
     <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="n">
@@ -5694,11 +5778,11 @@
     </row>
     <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="0"/>
@@ -6728,7 +6812,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="0"/>
@@ -7754,13 +7838,13 @@
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="112" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="112"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -8784,13 +8868,13 @@
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="112"/>
+        <v>170</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="114"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -9812,31 +9896,31 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="114" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="113" t="s">
+    <row r="7" s="116" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="111" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="112" t="n">
+      <c r="B7" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="114" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="114"/>
       <c r="M7" s="102"/>
       <c r="N7" s="102"/>
       <c r="O7" s="102"/>
       <c r="P7" s="102"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="113"/>
-      <c r="B8" s="111" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="112" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="112"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -10859,7 +10943,7 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="113"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="0"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -11885,16 +11969,16 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="112"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -12917,12 +13001,12 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="113"/>
-      <c r="B11" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -13945,14 +14029,14 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="113"/>
-      <c r="B12" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="115" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="115"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="117"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -14975,16 +15059,16 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="115"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -16007,12 +16091,12 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="113"/>
-      <c r="B14" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -17035,12 +17119,12 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="113"/>
-      <c r="B15" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -18063,16 +18147,16 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="115"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -19095,12 +19179,12 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="113"/>
-      <c r="B17" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -20123,12 +20207,12 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="113"/>
-      <c r="B18" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -21151,14 +21235,14 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -22181,12 +22265,12 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="113"/>
-      <c r="B20" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -23209,12 +23293,12 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="113"/>
-      <c r="B21" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -24240,9 +24324,9 @@
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -25266,9 +25350,9 @@
     </row>
     <row r="23" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
@@ -27317,12 +27401,12 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
+      <c r="A26" s="118" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -28344,16 +28428,16 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="114" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="117" t="s">
+    <row r="27" s="116" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="114" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="114" t="s">
-        <v>171</v>
+      <c r="B27" s="119"/>
+      <c r="C27" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="116" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28365,7 +28449,7 @@
         <v>76.1</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28377,7 +28461,7 @@
         <v>81</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28389,7 +28473,7 @@
         <v>81.5</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28401,7 +28485,7 @@
         <v>81.1</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28509,19 +28593,19 @@
   </sheetPr>
   <dimension ref="1:33"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="107" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="108" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="109" width="12.2348178137652"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="110" width="73.8056680161943"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="110" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="109" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="110" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="111" width="12.2348178137652"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="112" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="112" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28529,10 +28613,10 @@
         <v>52</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="118"/>
+      <c r="D1" s="120"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -29556,7 +29640,7 @@
     </row>
     <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="99" t="n">
@@ -30586,11 +30670,11 @@
     </row>
     <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="0"/>
@@ -31620,7 +31704,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="99" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D4" s="99"/>
       <c r="E4" s="0"/>
@@ -32646,11 +32730,11 @@
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="111"/>
+        <v>169</v>
+      </c>
+      <c r="B5" s="113"/>
       <c r="C5" s="99" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D5" s="99"/>
       <c r="E5" s="0"/>
@@ -33676,11 +33760,11 @@
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="111"/>
+        <v>170</v>
+      </c>
+      <c r="B6" s="113"/>
       <c r="C6" s="99" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D6" s="99"/>
       <c r="E6" s="0"/>
@@ -34704,80 +34788,80 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="114" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="113" t="s">
+    <row r="7" s="116" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="111" t="s">
-        <v>164</v>
+      <c r="B7" s="113" t="s">
+        <v>172</v>
       </c>
       <c r="C7" s="99" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="99"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="113"/>
-      <c r="B8" s="111" t="s">
-        <v>165</v>
+      <c r="A8" s="115"/>
+      <c r="B8" s="113" t="s">
+        <v>173</v>
       </c>
       <c r="C8" s="99" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D8" s="99"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="113"/>
-      <c r="B9" s="119"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="99"/>
       <c r="D9" s="99"/>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="120" t="n">
+      <c r="C10" s="122" t="n">
         <v>127600</v>
       </c>
-      <c r="D10" s="120"/>
+      <c r="D10" s="122"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="113"/>
-      <c r="B11" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="121" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="121"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="123" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="123"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="113"/>
-      <c r="B12" s="111" t="s">
-        <v>167</v>
+      <c r="A12" s="115"/>
+      <c r="B12" s="113" t="s">
+        <v>175</v>
       </c>
       <c r="C12" s="99" t="n">
         <v>61724</v>
@@ -34785,10 +34869,10 @@
       <c r="D12" s="99"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="113" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="99" t="n">
@@ -34797,28 +34881,28 @@
       <c r="D13" s="99"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="113"/>
-      <c r="B14" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="121" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="121"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="123" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="123"/>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="113"/>
-      <c r="B15" s="111" t="s">
-        <v>167</v>
+      <c r="A15" s="115"/>
+      <c r="B15" s="113" t="s">
+        <v>175</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="99"/>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="113" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="99" t="s">
@@ -34827,26 +34911,26 @@
       <c r="D16" s="99"/>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="113"/>
-      <c r="B17" s="111" t="s">
-        <v>166</v>
+      <c r="A17" s="115"/>
+      <c r="B17" s="113" t="s">
+        <v>174</v>
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="113"/>
-      <c r="B18" s="111" t="s">
-        <v>167</v>
+      <c r="A18" s="115"/>
+      <c r="B18" s="113" t="s">
+        <v>175</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="99"/>
     </row>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="113" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="99" t="n">
@@ -34855,19 +34939,19 @@
       <c r="D19" s="99"/>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="113"/>
-      <c r="B20" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="121" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="121"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="123"/>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="113"/>
-      <c r="B21" s="111" t="s">
-        <v>167</v>
+      <c r="A21" s="115"/>
+      <c r="B21" s="113" t="s">
+        <v>175</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="99"/>
@@ -34876,7 +34960,7 @@
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="111"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="99"/>
       <c r="D22" s="99"/>
     </row>
@@ -34893,72 +34977,72 @@
       <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
+      <c r="A25" s="118" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="114" t="s">
-        <v>171</v>
+      <c r="B26" s="119"/>
+      <c r="C26" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="116" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="122" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="121" t="n">
+      <c r="A27" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="124"/>
+      <c r="C27" s="123" t="n">
         <v>7.64</v>
       </c>
-      <c r="D27" s="123" t="s">
-        <v>174</v>
+      <c r="D27" s="125" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="117"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="124"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="126"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="117"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="124"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="126"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="117"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="124"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="126"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="117"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="124"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="126"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="117"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="124"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="126"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="124"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="40">

--- a/dataset/公开数据集.xlsx
+++ b/dataset/公开数据集.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'1 MR'!$C$25</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'1 MR'!$C$25</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0" vbProcedure="false">'1 MR'!$C$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0" vbProcedure="false">'1 MR'!$C$25</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -65,7 +66,6 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>Nal Kalchbrenner</t>
     </r>
@@ -397,7 +397,6 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>movie reviews</t>
     </r>
@@ -441,7 +440,6 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>electronics product reviews</t>
     </r>
@@ -543,7 +541,6 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>Kalchbrenner</t>
     </r>
@@ -596,7 +593,6 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>Paragraph-Vec(</t>
     </r>
@@ -804,7 +800,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>最长= 191 ,最短= 3 ,平均</t>
+      <t>最长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>= 191 ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>最短</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>= 3 ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>平均</t>
     </r>
     <r>
       <rPr>
@@ -826,7 +862,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>最长= 148 ,最短= 6 ,平均</t>
+      <t>最长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>= 148 ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>最短</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>= 6 ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>平均</t>
     </r>
     <r>
       <rPr>
@@ -916,6 +992,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -976,12 +1058,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1237,11 +1313,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1265,15 +1341,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1293,7 +1365,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1301,7 +1373,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1313,6 +1385,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1321,8 +1397,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1337,23 +1413,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1361,31 +1437,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1397,7 +1473,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1425,6 +1501,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1437,15 +1517,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1453,11 +1533,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1477,7 +1557,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1493,7 +1573,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1513,7 +1593,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1561,11 +1641,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1577,7 +1657,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1593,11 +1673,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1625,7 +1705,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1633,7 +1713,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1673,7 +1753,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1681,16 +1761,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1782,13 +1858,13 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1905,7 +1981,7 @@
     <mergeCell ref="C12:D12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="数据集汇总" display="一、相关论文"/>
+    <hyperlink ref="A2" location="数据集汇总  相关论文" display="一、相关论文"/>
     <hyperlink ref="A3" location="模型PK大汇总" display="二、模型PK汇总"/>
     <hyperlink ref="A4" location="可用资源汇总" display="三、可用资源汇总"/>
     <hyperlink ref="A5" location="数据集汇总" display="四、数据集汇总"/>
@@ -1936,18 +2012,18 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="7" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="107.655870445344"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="108.619433198381"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2284,173 +2360,173 @@
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="11" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="n">
+      <c r="A18" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="21" t="n">
+      <c r="F19" s="20" t="n">
         <v>11855</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="21" t="n">
+      <c r="H19" s="20" t="n">
         <v>8544</v>
       </c>
       <c r="I19" s="0"/>
-      <c r="J19" s="21" t="n">
+      <c r="J19" s="20" t="n">
         <v>1101</v>
       </c>
-      <c r="K19" s="21" t="n">
+      <c r="K19" s="20" t="n">
         <v>2210</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="20" t="s">
         <v>77</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="25" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="21" t="n">
+      <c r="D20" s="20" t="n">
         <v>2</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="21" t="n">
+      <c r="F20" s="20" t="n">
         <v>9613</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="21" t="n">
+      <c r="H20" s="20" t="n">
         <v>6920</v>
       </c>
       <c r="I20" s="0"/>
-      <c r="J20" s="21" t="n">
+      <c r="J20" s="20" t="n">
         <v>872</v>
       </c>
-      <c r="K20" s="21" t="n">
+      <c r="K20" s="20" t="n">
         <v>1821</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="21"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
+      <c r="A21" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="21" t="n">
+      <c r="F21" s="20" t="n">
         <v>5952</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="21" t="n">
+      <c r="H21" s="20" t="n">
         <v>5452</v>
       </c>
       <c r="I21" s="0"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21" t="n">
+      <c r="J21" s="20"/>
+      <c r="K21" s="20" t="n">
         <v>500</v>
       </c>
-      <c r="L21" s="21"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
+      <c r="A22" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="21" t="n">
+      <c r="D22" s="20" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="14" t="s">
@@ -2458,16 +2534,16 @@
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="20" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="0"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21" t="n">
+      <c r="J22" s="20"/>
+      <c r="K22" s="20" t="n">
         <v>400</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21" t="n">
+      <c r="L22" s="20"/>
+      <c r="M22" s="20" t="n">
         <v>76643</v>
       </c>
       <c r="N22" s="0" t="s">
@@ -2478,10 +2554,10 @@
       <c r="A23" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="7" t="n">
@@ -2490,10 +2566,10 @@
       <c r="E23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>96</v>
       </c>
       <c r="H23" s="0"/>
@@ -2509,10 +2585,10 @@
       <c r="A24" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>99</v>
       </c>
       <c r="D24" s="7" t="n">
@@ -2538,10 +2614,10 @@
       <c r="A25" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D25" s="7" t="n">
@@ -2564,13 +2640,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="n">
+      <c r="A26" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="29" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="7" t="n">
@@ -2591,18 +2667,18 @@
       <c r="K26" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="26" t="s">
+      <c r="N26" s="25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="n">
+      <c r="A27" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="29" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="7" t="n">
@@ -2629,10 +2705,10 @@
       <c r="B28" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="14" t="s">
@@ -2656,7 +2732,7 @@
       <c r="B29" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D29" s="7" t="n">
@@ -2683,7 +2759,7 @@
       <c r="B30" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="29" t="s">
         <v>118</v>
       </c>
       <c r="D30" s="0"/>
@@ -2698,18 +2774,18 @@
       <c r="K30" s="7" t="n">
         <v>2280</v>
       </c>
-      <c r="N30" s="26" t="s">
+      <c r="N30" s="25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="n">
+      <c r="A31" s="18" t="n">
         <v>12</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="32" t="s">
         <v>121</v>
       </c>
       <c r="D31" s="7" t="n">
@@ -2841,21 +2917,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="7" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="7" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3024,19 +3100,19 @@
       <c r="O6" s="57"/>
     </row>
     <row r="7" s="53" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="59" t="n">
+      <c r="C7" s="60" t="n">
         <v>76.1</v>
       </c>
-      <c r="D7" s="59" t="n">
+      <c r="D7" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="E7" s="59" t="n">
+      <c r="E7" s="60" t="n">
         <v>82.7</v>
       </c>
       <c r="F7" s="50" t="n">
@@ -3059,8 +3135,8 @@
       <c r="O7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="61" t="s">
         <v>130</v>
       </c>
       <c r="C8" s="56" t="n">
@@ -3082,21 +3158,21 @@
       <c r="I8" s="55" t="n">
         <v>84.7</v>
       </c>
-      <c r="J8" s="61" t="n">
+      <c r="J8" s="62" t="n">
         <v>89.6</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
       <c r="O8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48"/>
-      <c r="B9" s="60" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="62" t="n">
+      <c r="C9" s="63" t="n">
         <v>81.5</v>
       </c>
       <c r="D9" s="56" t="n">
@@ -3125,8 +3201,8 @@
       <c r="O9" s="57"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="61" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="56" t="n">
@@ -3135,7 +3211,7 @@
       <c r="D10" s="55" t="n">
         <v>47.4</v>
       </c>
-      <c r="E10" s="63" t="n">
+      <c r="E10" s="64" t="n">
         <v>88.1</v>
       </c>
       <c r="F10" s="55" t="n">
@@ -3145,7 +3221,7 @@
       <c r="H10" s="55" t="n">
         <v>93.2</v>
       </c>
-      <c r="I10" s="61" t="n">
+      <c r="I10" s="62" t="n">
         <v>85</v>
       </c>
       <c r="J10" s="55" t="n">
@@ -3158,14 +3234,14 @@
       <c r="O10" s="57"/>
     </row>
     <row r="11" s="53" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="66" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="66" t="n">
+      <c r="D11" s="67" t="n">
         <v>48.7</v>
       </c>
       <c r="E11" s="50" t="n">
@@ -3181,97 +3257,97 @@
       <c r="M11" s="52"/>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
-      <c r="AMJ11" s="67"/>
+      <c r="AMJ11" s="68"/>
     </row>
-    <row r="12" s="72" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68" t="s">
+    <row r="12" s="73" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="71" t="n">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72" t="n">
         <v>95</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="AMJ12" s="73"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="AMJ12" s="74"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="74" t="n">
+      <c r="C13" s="75" t="n">
         <v>79</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="74" t="n">
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="75" t="n">
         <v>93.6</v>
       </c>
-      <c r="I13" s="74" t="n">
+      <c r="I13" s="75" t="n">
         <v>80</v>
       </c>
-      <c r="J13" s="74" t="n">
+      <c r="J13" s="75" t="n">
         <v>86.3</v>
       </c>
-      <c r="K13" s="74"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="AMJ13" s="73"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="AMJ13" s="74"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="74" t="n">
+      <c r="C14" s="75" t="n">
         <v>79.1</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="61" t="n">
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="62" t="n">
         <v>93.6</v>
       </c>
-      <c r="I14" s="74" t="n">
+      <c r="I14" s="75" t="n">
         <v>81.9</v>
       </c>
-      <c r="J14" s="74" t="n">
+      <c r="J14" s="75" t="n">
         <v>86.3</v>
       </c>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="AMJ14" s="73"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="AMJ14" s="74"/>
     </row>
     <row r="15" s="53" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="78" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="50"/>
@@ -3294,8 +3370,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="76"/>
-      <c r="B16" s="78" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="79" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="55"/>
@@ -3319,8 +3395,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="76"/>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="79" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="55"/>
@@ -3342,252 +3418,252 @@
       <c r="O17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="76"/>
-      <c r="B18" s="78" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="80" t="n">
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81" t="n">
         <v>7.67</v>
       </c>
-      <c r="M18" s="80" t="n">
+      <c r="M18" s="81" t="n">
         <v>7.14</v>
       </c>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
     </row>
     <row r="19" s="53" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85" t="s">
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="M19" s="85" t="s">
+      <c r="M19" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86" t="s">
+      <c r="N19" s="87"/>
+      <c r="O19" s="87" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="82"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88" t="s">
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="M20" s="88" t="s">
+      <c r="M20" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89" t="s">
+      <c r="N20" s="90"/>
+      <c r="O20" s="90" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="82"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="88" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="M21" s="88" t="s">
+      <c r="M21" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89" t="s">
+      <c r="N21" s="90"/>
+      <c r="O21" s="90" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" s="95" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="82"/>
-      <c r="B22" s="90" t="s">
+    <row r="22" s="96" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="83"/>
+      <c r="B22" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92" t="n">
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93" t="n">
         <v>6.51</v>
       </c>
-      <c r="M22" s="93" t="n">
+      <c r="M22" s="94" t="n">
         <v>6.27</v>
       </c>
-      <c r="N22" s="94"/>
-      <c r="O22" s="93" t="n">
+      <c r="N22" s="95"/>
+      <c r="O22" s="94" t="n">
         <v>7.71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="77" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84" t="n">
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85" t="n">
         <v>96.4</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84" t="n">
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85" t="n">
         <v>83.6</v>
       </c>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="76"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="96" t="n">
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="97" t="n">
         <v>97.2</v>
       </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87" t="n">
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88" t="n">
         <v>84.4</v>
       </c>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="76"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91" t="n">
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92" t="n">
         <v>95.6</v>
       </c>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="93" t="n">
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="94" t="n">
         <v>85.1</v>
       </c>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
     </row>
-    <row r="26" s="103" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="97" t="s">
+    <row r="26" s="104" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100" t="n">
+      <c r="C26" s="100"/>
+      <c r="D26" s="101" t="n">
         <v>49.6</v>
       </c>
-      <c r="E26" s="101" t="n">
+      <c r="E26" s="102" t="n">
         <v>89.4</v>
       </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="101" t="n">
+      <c r="F26" s="100"/>
+      <c r="G26" s="102" t="n">
         <v>88.2</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>93.9</v>
       </c>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
     </row>
-    <row r="27" s="102" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="104" t="s">
+    <row r="27" s="103" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="L27" s="106" t="s">
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="L27" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="M27" s="106" t="s">
+      <c r="M27" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="O27" s="106" t="s">
+      <c r="O27" s="107" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3623,48 +3699,53 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.9028340080972"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="107" width="38.582995951417"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="108" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>156</v>
       </c>
+      <c r="B1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>157</v>
       </c>
+      <c r="B3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="109" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="109" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3672,7 +3753,7 @@
       <c r="A7" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3701,19 +3782,19 @@
   </sheetPr>
   <dimension ref="1:35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="109" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="110" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="111" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="112" width="81.4089068825911"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="112" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="110" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="111" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="112" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="113" width="82.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="113" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7840,11 +7921,11 @@
       <c r="A5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="114"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -8870,11 +8951,11 @@
       <c r="A6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="114"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -9896,31 +9977,31 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="116" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="115" t="s">
+    <row r="7" s="117" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="114" t="n">
+      <c r="C7" s="115" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
+      <c r="D7" s="115"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="115"/>
-      <c r="B8" s="113" t="s">
+      <c r="A8" s="116"/>
+      <c r="B8" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="114"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -9929,10 +10010,10 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
       <c r="Q8" s="0"/>
       <c r="R8" s="0"/>
       <c r="S8" s="0"/>
@@ -10943,7 +11024,7 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="115"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="0"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -11969,16 +12050,16 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -13001,12 +13082,12 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="115"/>
-      <c r="B11" s="113" t="s">
+      <c r="A11" s="116"/>
+      <c r="B11" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -14029,14 +14110,14 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="115"/>
-      <c r="B12" s="113" t="s">
+      <c r="A12" s="116"/>
+      <c r="B12" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -15059,16 +15140,16 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="117"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -16091,12 +16172,12 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="115"/>
-      <c r="B14" s="113" t="s">
+      <c r="A14" s="116"/>
+      <c r="B14" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -17119,12 +17200,12 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="115"/>
-      <c r="B15" s="113" t="s">
+      <c r="A15" s="116"/>
+      <c r="B15" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -18147,16 +18228,16 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="117"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -19179,12 +19260,12 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="115"/>
-      <c r="B17" s="113" t="s">
+      <c r="A17" s="116"/>
+      <c r="B17" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -20207,12 +20288,12 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="115"/>
-      <c r="B18" s="113" t="s">
+      <c r="A18" s="116"/>
+      <c r="B18" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -21235,14 +21316,14 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -22265,12 +22346,12 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="115"/>
-      <c r="B20" s="113" t="s">
+      <c r="A20" s="116"/>
+      <c r="B20" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -23293,12 +23374,12 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="115"/>
-      <c r="B21" s="113" t="s">
+      <c r="A21" s="116"/>
+      <c r="B21" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -24324,9 +24405,9 @@
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -25350,9 +25431,9 @@
     </row>
     <row r="23" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
@@ -27401,12 +27482,12 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -28428,15 +28509,15 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="116" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="119" t="s">
+    <row r="27" s="117" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="116" t="s">
+      <c r="B27" s="120"/>
+      <c r="C27" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="117" t="s">
         <v>179</v>
       </c>
     </row>
@@ -28445,10 +28526,10 @@
         <v>129</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="99" t="n">
+      <c r="C28" s="100" t="n">
         <v>76.1</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="103" t="s">
         <v>180</v>
       </c>
     </row>
@@ -28457,10 +28538,10 @@
         <v>130</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="99" t="n">
+      <c r="C29" s="100" t="n">
         <v>81</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="103" t="s">
         <v>180</v>
       </c>
     </row>
@@ -28469,10 +28550,10 @@
         <v>131</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="99" t="n">
+      <c r="C30" s="100" t="n">
         <v>81.5</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="103" t="s">
         <v>180</v>
       </c>
     </row>
@@ -28481,10 +28562,10 @@
         <v>132</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="99" t="n">
+      <c r="C31" s="100" t="n">
         <v>81.1</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="103" t="s">
         <v>180</v>
       </c>
     </row>
@@ -28493,10 +28574,10 @@
         <v>138</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="99" t="n">
+      <c r="C32" s="100" t="n">
         <v>79</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="103" t="s">
         <v>137</v>
       </c>
     </row>
@@ -28505,24 +28586,24 @@
         <v>140</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="99" t="n">
+      <c r="C33" s="100" t="n">
         <v>79.1</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="103" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="102"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="103"/>
     </row>
     <row r="35" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="102"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -28601,11 +28682,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="109" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="110" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="111" width="12.2348178137652"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="112" width="73.8056680161943"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="112" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="110" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="111" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="112" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="113" width="74.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="113" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28613,10 +28694,10 @@
         <v>52</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="120"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -29643,10 +29724,10 @@
         <v>165</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="99" t="n">
+      <c r="C2" s="100" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="99"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
@@ -31703,10 +31784,10 @@
         <v>62</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -32732,11 +32813,11 @@
       <c r="A5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="99" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -33762,11 +33843,11 @@
       <c r="A6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="99" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="99"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -34788,181 +34869,181 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="116" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="115" t="s">
+    <row r="7" s="117" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="99" t="n">
+      <c r="C7" s="100" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="115"/>
-      <c r="B8" s="113" t="s">
+      <c r="A8" s="116"/>
+      <c r="B8" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="99"/>
+      <c r="D8" s="100"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="115"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="122" t="n">
+      <c r="C10" s="123" t="n">
         <v>127600</v>
       </c>
-      <c r="D10" s="122"/>
+      <c r="D10" s="123"/>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="115"/>
-      <c r="B11" s="113" t="s">
+      <c r="A11" s="116"/>
+      <c r="B11" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="123"/>
+      <c r="D11" s="124"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="115"/>
-      <c r="B12" s="113" t="s">
+      <c r="A12" s="116"/>
+      <c r="B12" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="99" t="n">
+      <c r="C12" s="100" t="n">
         <v>61724</v>
       </c>
-      <c r="D12" s="99"/>
+      <c r="D12" s="100"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="99" t="n">
+      <c r="C13" s="100" t="n">
         <v>120000</v>
       </c>
-      <c r="D13" s="99"/>
+      <c r="D13" s="100"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="115"/>
-      <c r="B14" s="113" t="s">
+      <c r="A14" s="116"/>
+      <c r="B14" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="124"/>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="115"/>
-      <c r="B15" s="113" t="s">
+      <c r="A15" s="116"/>
+      <c r="B15" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="99"/>
+      <c r="D16" s="100"/>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="115"/>
-      <c r="B17" s="113" t="s">
+      <c r="A17" s="116"/>
+      <c r="B17" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="115"/>
-      <c r="B18" s="113" t="s">
+      <c r="A18" s="116"/>
+      <c r="B18" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
     </row>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="99" t="n">
+      <c r="C19" s="100" t="n">
         <v>7600</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="100"/>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="115"/>
-      <c r="B20" s="113" t="s">
+      <c r="A20" s="116"/>
+      <c r="B20" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="123"/>
+      <c r="D20" s="124"/>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="115"/>
-      <c r="B21" s="113" t="s">
+      <c r="A21" s="116"/>
+      <c r="B21" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
     </row>
     <row r="22" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
@@ -34977,31 +35058,31 @@
       <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="113" t="s">
+      <c r="B26" s="120"/>
+      <c r="C26" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="117" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="124"/>
-      <c r="C27" s="123" t="n">
+      <c r="B27" s="77"/>
+      <c r="C27" s="124" t="n">
         <v>7.64</v>
       </c>
       <c r="D27" s="125" t="s">
@@ -35009,39 +35090,39 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="123"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="124"/>
       <c r="D28" s="126"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="119"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="123"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="126"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="119"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="123"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="124"/>
       <c r="D30" s="126"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="119"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="123"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="126"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="119"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="123"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="126"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="123"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="126"/>
     </row>
   </sheetData>
